--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03909BE4-2FC5-47C0-B006-7F02EE6CD163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8220AD-78C9-4822-BFB4-141258ACAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="5775" windowWidth="12480" windowHeight="11385" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="5685" yWindow="3450" windowWidth="12480" windowHeight="11385" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -129,17 +129,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,17 +459,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8643977C-A067-4C33-B0A8-658AE0A3A2A5}">
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
     <col min="4" max="4" width="4.375" customWidth="1"/>
     <col min="5" max="11" width="3.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
@@ -478,10 +481,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -489,18 +492,18 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -510,28 +513,28 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L6" t="s">
@@ -607,7 +610,7 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="N9">
@@ -633,7 +636,7 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10">
@@ -659,7 +662,7 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11">
@@ -685,7 +688,7 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12">
@@ -711,7 +714,7 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13">
@@ -737,7 +740,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14">
@@ -763,7 +766,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15">
@@ -789,7 +792,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16">
@@ -995,6 +998,35 @@
       </c>
       <c r="N24">
         <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8220AD-78C9-4822-BFB4-141258ACAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B9044F-7607-4618-A356-792A4BCBDF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="3450" windowWidth="12480" windowHeight="11385" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="8760" yWindow="2685" windowWidth="10860" windowHeight="12930" activeTab="1" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
+    <sheet name="컴퓨터상식" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +72,12 @@
   <si>
     <t>십진수</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual studio code : 대부분 언어 커버</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDE : 통합개발환경, integrated deveopment enviornment </t>
   </si>
 </sst>
 </file>
@@ -139,10 +146,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8643977C-A067-4C33-B0A8-658AE0A3A2A5}">
   <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:H27"/>
     </sheetView>
   </sheetViews>
@@ -481,10 +488,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -495,15 +502,15 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -516,25 +523,25 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L6" t="s">
@@ -545,16 +552,16 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="N7" t="s">
         <v>11</v>
       </c>
@@ -1036,4 +1043,30 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5BDAE5-CBE5-487E-BD41-3E142EF656DB}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B9044F-7607-4618-A356-792A4BCBDF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57975D7-DA06-4396-9AF8-A33B924EFC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="2685" windowWidth="10860" windowHeight="12930" activeTab="1" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="11250" yWindow="6270" windowWidth="13800" windowHeight="10275" activeTab="1" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,13 +78,51 @@
   </si>
   <si>
     <t xml:space="preserve">IDE : 통합개발환경, integrated deveopment enviornment </t>
+  </si>
+  <si>
+    <t>http://127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5500/Python/first3.html</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5500/ex/html/20240715/first.html</t>
+  </si>
+  <si>
+    <t>:5500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스가 나가는 구멍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.naver.com/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypertext transper protocol secure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +144,15 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -131,12 +178,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,9 +202,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1047,26 +1101,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5BDAE5-CBE5-487E-BD41-3E142EF656DB}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{C27949B8-B669-4F94-B4CA-C6C079C12856}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{45AE58EB-32BF-4BD5-BBED-4A81318AAAA2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57975D7-DA06-4396-9AF8-A33B924EFC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF85BD-7B3B-4D5B-93C1-14EC2F1D74EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="6270" windowWidth="13800" windowHeight="10275" activeTab="1" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>십진수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>visual studio code : 대부분 언어 커버</t>
   </si>
   <si>
@@ -115,6 +111,71 @@
   </si>
   <si>
     <t>hypertext transper protocol secure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8진수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16진수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10진수(decimal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,A,B,C,D,E,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Octal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hexadecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8진수(octal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16진수
+(hexadecimal)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +229,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,6 +292,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -186,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,11 +329,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,28 +689,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8643977C-A067-4C33-B0A8-658AE0A3A2A5}">
-  <dimension ref="B2:N25"/>
+  <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="4.125" customWidth="1"/>
     <col min="4" max="4" width="4.375" customWidth="1"/>
     <col min="5" max="11" width="3.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
     <col min="16" max="16" width="4.5" customWidth="1"/>
     <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -551,16 +727,52 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="13">
+        <v>10</v>
+      </c>
+      <c r="P2" s="13">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>12</v>
+      </c>
+      <c r="R2" s="13">
+        <v>13</v>
+      </c>
+      <c r="S2" s="13">
+        <v>14</v>
+      </c>
+      <c r="T2" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -568,12 +780,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -605,22 +817,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="N7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>0</v>
       </c>
@@ -649,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>0</v>
       </c>
@@ -678,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>0</v>
       </c>
@@ -707,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>0</v>
       </c>
@@ -736,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>0</v>
       </c>
@@ -765,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>0</v>
       </c>
@@ -794,7 +1006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>0</v>
       </c>
@@ -823,7 +1035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>0</v>
       </c>
@@ -852,7 +1064,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>1</v>
       </c>
@@ -881,7 +1093,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>1</v>
       </c>
@@ -911,7 +1123,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>7</v>
       </c>
@@ -937,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D20">
         <f t="shared" ref="D20:J20" si="0">2^D19</f>
         <v>128</v>
@@ -971,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>0</v>
       </c>
@@ -1000,7 +1212,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>0</v>
       </c>
@@ -1029,7 +1241,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>1</v>
       </c>
@@ -1061,7 +1273,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>1</v>
       </c>
@@ -1090,9 +1302,237 @@
         <v>200</v>
       </c>
     </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="12">
+        <v>351</v>
+      </c>
+      <c r="N26">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15">
+        <v>3</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15">
+        <v>5</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15">
+        <v>1</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15">
+        <v>9</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>1</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="15">
+        <v>3</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15">
+        <v>7</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15">
+        <v>2</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <v>1</v>
+      </c>
+      <c r="K35" s="17">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
     <mergeCell ref="D7:K7"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="F27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5BDAE5-CBE5-487E-BD41-3E142EF656DB}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1117,64 +1557,64 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>20</v>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF85BD-7B3B-4D5B-93C1-14EC2F1D74EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629D8C51-DECE-44B3-9D1B-74DB29D263C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="2625" yWindow="930" windowWidth="16005" windowHeight="13455" activeTab="3" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
     <sheet name="컴퓨터상식" sheetId="2" r:id="rId2"/>
+    <sheet name="자료형" sheetId="3" r:id="rId3"/>
+    <sheet name="클래스" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +178,405 @@
   <si>
     <t>16진수
 (hexadecimal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># CPU : 산술 (Arithmetic), 논리 (Logical), 제어 (control Unit)  --- ALU</t>
+  </si>
+  <si>
+    <t># 클래스명 앞글자 : 대문자.</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB392F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyword</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># ['False', 'None:비어있다.', 'True', 'and', 'as', 'assert', 'async', 'await', 'break', 'class', 'continue', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#  'def', 'del', 'elif', 'else', 'except', 'finally', 'for', 'from', 'global', 'if', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#  'import', 'in', 'is', 'lambda', 'nonlocal', 'not', 'or', 'pass', </t>
+  </si>
+  <si>
+    <t>#  'raise','return', 'try', 'while', 'with', 'yield']</t>
+  </si>
+  <si>
+    <t># keyword는 라이브러리.</t>
+  </si>
+  <si>
+    <t>0을 제외한 나머지 참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이란 개념은 빈 것과 None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수(float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불리언(True/False)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>keyword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>kwlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접근하다는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의미이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자로 시작 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공백 포함 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약어 사용 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">스네이크 케이스 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(snake case) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>언더바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(_)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기호 중간에 붙이기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">캐멀 케이스 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(camel case) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>단어들의 첫 글자를 대문자로 만들기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">파이썬에서는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스네이크(파이썬에서 주로사용)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 및 캐멀 케이스 둘 모두 사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느린이유? 파이썬은 Mapper를 한 번 감쌌다. 그래서 C언어보다 느리다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕어빵틀(클래스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕어빵(객체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스는 '틀'이자 '단위'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체는 틀(클래스)에서 찍은 놈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object oriented program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상을 지배하는 프로그래밍 방법론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 공학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +613,91 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE1E4E8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A737D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF97583"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB392F0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A737D"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,47 +818,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8643977C-A067-4C33-B0A8-658AE0A3A2A5}">
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,22 +1228,22 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="12">
         <v>10</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <v>11</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="12">
         <v>12</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="12">
         <v>13</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="12">
         <v>14</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="12">
         <v>15</v>
       </c>
     </row>
@@ -753,22 +1254,22 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -818,16 +1319,16 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -1306,34 +1807,34 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
-        <v>1</v>
-      </c>
-      <c r="L26" s="12">
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11">
         <v>351</v>
       </c>
       <c r="N26">
@@ -1344,21 +1845,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="17">
         <v>3</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17">
         <v>5</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15">
-        <v>1</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -1369,34 +1870,34 @@
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1</v>
-      </c>
-      <c r="M29" s="11" t="s">
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29">
         <v>233</v>
       </c>
     </row>
@@ -1404,18 +1905,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17">
         <v>9</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -1423,31 +1924,31 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
-        <v>1</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="16">
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
-        <v>1</v>
-      </c>
-      <c r="K33" s="16">
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="13">
         <v>0</v>
       </c>
       <c r="N33">
@@ -1458,45 +1959,45 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="17">
         <v>3</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17">
         <v>7</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15">
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17">
         <v>2</v>
       </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="17">
-        <v>1</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
-        <v>1</v>
-      </c>
-      <c r="K35" s="17">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
+        <v>1</v>
+      </c>
+      <c r="K35" s="14">
         <v>0</v>
       </c>
       <c r="N35">
@@ -1504,21 +2005,21 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1625,4 +2126,211 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C094A0-5954-4EC1-9E5B-5BF05ABDB40A}">
+  <dimension ref="B2:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B26" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A3DF72-F4DC-4410-9F57-CDEE8532AC1E}">
+  <dimension ref="B3:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629D8C51-DECE-44B3-9D1B-74DB29D263C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440791A-3239-4000-AF16-FF451A36CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="930" windowWidth="16005" windowHeight="13455" activeTab="3" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="2625" yWindow="930" windowWidth="16005" windowHeight="13455" activeTab="4" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
     <sheet name="컴퓨터상식" sheetId="2" r:id="rId2"/>
     <sheet name="자료형" sheetId="3" r:id="rId3"/>
     <sheet name="클래스" sheetId="4" r:id="rId4"/>
+    <sheet name="문자열" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +578,50 @@
   </si>
   <si>
     <t>소프트웨어 공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대소문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isdigit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isalpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"전체문자열".find("부분 문자")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"안녕하세요".find("안녕")  &gt;&gt;&gt; return 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"안녕하세요".find("가가")  &gt;&gt;&gt; return -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"안녕하세요안녕하세요".find("안녕")  &gt;&gt;&gt; return 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,12 +896,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -866,14 +905,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,16 +1361,16 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -1845,21 +1887,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="22">
         <v>3</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22">
         <v>5</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17">
-        <v>1</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22">
+        <v>1</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -1905,18 +1947,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22">
         <v>9</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -1959,21 +2001,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="22">
         <v>3</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22">
         <v>7</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17">
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22">
         <v>2</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="6">
@@ -2008,18 +2050,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2142,55 +2184,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-    </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -2258,17 +2297,17 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="20" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2287,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A3DF72-F4DC-4410-9F57-CDEE8532AC1E}">
   <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2333,4 +2372,74 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA76733-CB72-4885-B631-B5DFB7B67C2C}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440791A-3239-4000-AF16-FF451A36CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8349C2C-E2FB-4ED8-82A5-94789EA9AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="930" windowWidth="16005" windowHeight="13455" activeTab="4" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="2625" yWindow="930" windowWidth="16005" windowHeight="13455" activeTab="5" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="자료형" sheetId="3" r:id="rId3"/>
     <sheet name="클래스" sheetId="4" r:id="rId4"/>
     <sheet name="문자열" sheetId="5" r:id="rId5"/>
+    <sheet name="자료구조" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,12 +625,48 @@
     <t>"안녕하세요안녕하세요".find("안녕")  &gt;&gt;&gt; return 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딕셔너리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리형(bool)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0빈난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +783,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -847,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +978,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2378,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA76733-CB72-4885-B631-B5DFB7B67C2C}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2442,4 +2513,77 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5742511C-F6C2-4D8F-AD8F-0806C110200B}">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8349C2C-E2FB-4ED8-82A5-94789EA9AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E2E3B-2C94-4B7D-B4CE-725D3B7C835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="930" windowWidth="16005" windowHeight="13455" activeTab="5" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="840" yWindow="0" windowWidth="13680" windowHeight="17400" firstSheet="2" activeTab="7" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="클래스" sheetId="4" r:id="rId4"/>
     <sheet name="문자열" sheetId="5" r:id="rId5"/>
     <sheet name="자료구조" sheetId="6" r:id="rId6"/>
+    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId7"/>
+    <sheet name="테이블연습" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +661,58 @@
   </si>
   <si>
     <t>0빈난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6500원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -900,6 +954,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,19 +1147,46 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,6 +1205,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C25450-3A35-1B93-8D26-2C3AFA32A9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680357" y="408214"/>
+          <a:ext cx="14233072" cy="1092121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>630640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>173410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926EEFC1-8BF6-10F3-F1A3-C9E808FFC073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666751" y="1592035"/>
+          <a:ext cx="14251389" cy="4296375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>151378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F5A89D-7743-A133-9F1D-55C599B95499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680357" y="6327320"/>
+          <a:ext cx="12954000" cy="13214237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>585240</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>201170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9955C427-3672-79CF-52BB-34E2060DE922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13920107" y="6286500"/>
+          <a:ext cx="952633" cy="8202170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>680356</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF70E7F-AB51-DFF0-D894-7365509789ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680356" y="20002499"/>
+          <a:ext cx="13062857" cy="8803821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,16 +1858,16 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -1958,21 +2384,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="25">
         <v>3</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25">
         <v>5</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22">
-        <v>1</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25">
+        <v>1</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -2018,18 +2444,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22">
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25">
         <v>9</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -2072,21 +2498,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="25">
         <v>3</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25">
         <v>7</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25">
         <v>2</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="6">
@@ -2121,18 +2547,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2519,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5742511C-F6C2-4D8F-AD8F-0806C110200B}">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -2551,7 +2977,7 @@
       <c r="G4" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2559,26 +2985,26 @@
       <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2586,4 +3012,100 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A05455-5B8A-4366-A5B2-21DF9A535D3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD498B0-A2E8-4118-BE41-F31E68278A6C}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="30">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="30">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005E2E3B-2C94-4B7D-B4CE-725D3B7C835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD853A51-B76A-4470-972F-0164FF178BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="13680" windowHeight="17400" firstSheet="2" activeTab="7" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="-45" yWindow="60" windowWidth="13365" windowHeight="11100" firstSheet="2" activeTab="5" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,12 +715,56 @@
     <t>1500원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>값의 개수를 셀 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'a': [1,2,3,4…]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수(value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">값(key) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값 swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값으 ㅣ개수 세는 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있냐없냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾고자 하는 값 in iterable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iterable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:리스트 , 문자열, 튜플, 딕셔너리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,8 +906,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +983,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1083,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,37 +1221,46 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1858,16 +1932,16 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -2384,21 +2458,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="34">
         <v>3</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34">
         <v>5</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25">
-        <v>1</v>
-      </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34">
+        <v>1</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -2444,18 +2518,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25">
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34">
         <v>9</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -2498,21 +2572,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="34">
         <v>3</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34">
         <v>7</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25">
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34">
         <v>2</v>
       </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="6">
@@ -2547,18 +2621,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25" t="s">
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2671,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C094A0-5954-4EC1-9E5B-5BF05ABDB40A}">
   <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2823,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A3DF72-F4DC-4410-9F57-CDEE8532AC1E}">
   <dimension ref="B3:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2943,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5742511C-F6C2-4D8F-AD8F-0806C110200B}">
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2954,15 +3028,17 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
     <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -2970,7 +3046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>92</v>
       </c>
@@ -2981,7 +3057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -2992,7 +3068,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E6" s="23" t="s">
         <v>88</v>
       </c>
@@ -3000,15 +3076,62 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E7" s="23" t="s">
         <v>90</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>91</v>
       </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K9:L9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3034,7 +3157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD498B0-A2E8-4118-BE41-F31E68278A6C}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3042,66 +3165,66 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="30">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="30">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD853A51-B76A-4470-972F-0164FF178BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB7D11-E06F-4167-A3FC-3FE862FA3003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="60" windowWidth="13365" windowHeight="11100" firstSheet="2" activeTab="5" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="18180" windowHeight="13035" firstSheet="6" activeTab="9" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
     <sheet name="컴퓨터상식" sheetId="2" r:id="rId2"/>
     <sheet name="자료형" sheetId="3" r:id="rId3"/>
-    <sheet name="클래스" sheetId="4" r:id="rId4"/>
-    <sheet name="문자열" sheetId="5" r:id="rId5"/>
-    <sheet name="자료구조" sheetId="6" r:id="rId6"/>
-    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId7"/>
-    <sheet name="테이블연습" sheetId="8" r:id="rId8"/>
+    <sheet name="연산자" sheetId="9" r:id="rId4"/>
+    <sheet name="클래스" sheetId="4" r:id="rId5"/>
+    <sheet name="문자열" sheetId="5" r:id="rId6"/>
+    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId7"/>
+    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId8"/>
+    <sheet name="테이블연습" sheetId="8" r:id="rId9"/>
+    <sheet name="반복문" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="198">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,6 +761,257 @@
   <si>
     <t>:리스트 , 문자열, 튜플, 딕셔너리</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># -------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t># 순서 정렬하기</t>
+  </si>
+  <si>
+    <t>numbers = [1,2,6,8,4,3,2,1,9,5,4,9,7,2,1,3,5,4,8,9,7,2,3]</t>
+  </si>
+  <si>
+    <t>counter = {}</t>
+  </si>
+  <si>
+    <t>for number in numbers:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if bool(counter) == False :        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        counter[number] = 1        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else :         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if number in counter.keys():                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            counter[number] += 1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            counter[number] = 1 </t>
+  </si>
+  <si>
+    <t>li = list(counter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li.sort() </t>
+  </si>
+  <si>
+    <t>print("정렬 전:", counter)</t>
+  </si>
+  <si>
+    <t>result=dict(sorted(counter.items()))</t>
+  </si>
+  <si>
+    <t>print("정렬 후:", result)</t>
+  </si>
+  <si>
+    <t># # 밑의 코드와 같은 결과가 나온다. Counter Class 사용</t>
+  </si>
+  <si>
+    <t># # import collections</t>
+  </si>
+  <si>
+    <t># # print(collections.Counter(numbers))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값이 같냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a is b </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소값이 같냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; a is b</t>
+  </si>
+  <si>
+    <t># True</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; type(4) is int</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; type(True) is bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># &gt;&gt;&gt; type("string") is str </t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; type({'1':'223'}) is dict</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; type((1, 455435)) is tuple</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; type([1,'3434',True]) is list</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; a=5</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; b=5</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; a == b</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; id(a)</t>
+  </si>
+  <si>
+    <t># 140730768155560</t>
+  </si>
+  <si>
+    <t># &gt;&gt;&gt; id(b)</t>
+  </si>
+  <si>
+    <t># # 주소값이 a,b가 같냐?? 256 값 넘어가면 변수 주소값이 달라진다.</t>
+  </si>
+  <si>
+    <t>트리만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str1= ''</t>
+  </si>
+  <si>
+    <t>for i in range(1, 7):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for j in range(6, i, -1):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        str1 += ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for k in range(0 , 2*i-1):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        str1 += '*'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    str1 += '\n'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>for i in range(2):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for j in range(4):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for k in range(3):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        str1 += "*"</t>
+  </si>
+  <si>
+    <t>print(str1)</t>
+  </si>
+  <si>
+    <t># result : 1,3,5,7,9,11</t>
+  </si>
+  <si>
+    <t>import time</t>
+  </si>
+  <si>
+    <t>print("로켓 발사 카운드 다운")</t>
+  </si>
+  <si>
+    <t>for i in range(5, -1, -1):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    time.sleep(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for i in range(7):    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    result = 2*i+1            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for j in range(11+1):     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if j == result:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            space = int((11-result)//2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            print(" "*space + "*"*j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            continue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for x in range(1, 2+1):    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(" "*3, "*"*3)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print("로 켓 발 사 !!")     </t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1248,6 +1502,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,12 +1522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1932,16 +2192,16 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -2458,21 +2718,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="38">
         <v>3</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38">
         <v>5</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34">
-        <v>1</v>
-      </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38">
+        <v>1</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -2518,18 +2778,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38">
         <v>9</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -2572,21 +2832,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="38">
         <v>3</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34">
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38">
         <v>7</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34">
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38">
         <v>2</v>
       </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="6">
@@ -2621,18 +2881,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34" t="s">
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2648,6 +2908,211 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="F27:H27"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662AAAFD-E456-4291-812C-7A0F7F9D2F83}">
+  <dimension ref="B4:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46577B-A38D-4F2F-8D0B-4F45FAE04A69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2894,6 +3359,236 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE7CA56-6260-453E-899E-D0485F695165}">
+  <dimension ref="B2:C46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="36"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="36"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A3DF72-F4DC-4410-9F57-CDEE8532AC1E}">
   <dimension ref="B3:I9"/>
   <sheetViews>
@@ -2945,7 +3640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA76733-CB72-4885-B631-B5DFB7B67C2C}">
   <dimension ref="B2:D11"/>
   <sheetViews>
@@ -3015,12 +3710,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5742511C-F6C2-4D8F-AD8F-0806C110200B}">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3088,18 +3783,18 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="33" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -3112,10 +3807,10 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>115</v>
       </c>
       <c r="H18" t="s">
@@ -3126,6 +3821,121 @@
       </c>
       <c r="L18" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3137,7 +3947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A05455-5B8A-4366-A5B2-21DF9A535D3E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3153,12 +3963,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD498B0-A2E8-4118-BE41-F31E68278A6C}">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB7D11-E06F-4167-A3FC-3FE862FA3003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079E7C5-0EED-4F1B-8E1D-50CA13775A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="18180" windowHeight="13035" firstSheet="6" activeTab="9" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="3" activeTab="6" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="212">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,6 +1012,51 @@
   </si>
   <si>
     <t xml:space="preserve">print("로 켓 발 사 !!")     </t>
+  </si>
+  <si>
+    <t>최대값/ 최소값 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직관적 방법:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위의 값 중에서 최소값보다 훨씬 더 작은 값으로 max_value를 초기화 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_value = 0</t>
+  </si>
+  <si>
+    <t>a = 0</t>
+  </si>
+  <si>
+    <t>b = 0</t>
+  </si>
+  <si>
+    <t>for i in range(1, 99+1):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    j = 100 - i </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # 최대값 구하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if max_value &lt; (i*j) :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        max_value = (i*j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        a = i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        b = j</t>
+  </si>
+  <si>
+    <t>print("최대가 되는 경우 : {} * {} = {}".format(a, b, max_value))</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662AAAFD-E456-4291-812C-7A0F7F9D2F83}">
   <dimension ref="B4:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:B45"/>
     </sheetView>
   </sheetViews>
@@ -3712,10 +3757,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5742511C-F6C2-4D8F-AD8F-0806C110200B}">
-  <dimension ref="B2:L48"/>
+  <dimension ref="B2:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3823,18 +3868,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3936,6 +3981,88 @@
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\ppt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shjung\pythonExam\ppt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079E7C5-0EED-4F1B-8E1D-50CA13775A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="3" activeTab="6" xr2:uid="{C292E0BC-00EB-4779-A60C-E007E6A4F4C7}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="반복문" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="276">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1058,12 +1057,207 @@
   <si>
     <t>print("최대가 되는 경우 : {} * {} = {}".format(a, b, max_value))</t>
   </si>
+  <si>
+    <t>평탄화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li1 = [1, 2, [3, 4], 5, [6, 7], [8, 9]]</t>
+  </si>
+  <si>
+    <t>li2 = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for i in range(len(li1)):    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if type(li1[i]) is list:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for x in li1[i]:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            li2.append(x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        li2.append(li1[i])</t>
+  </si>
+  <si>
+    <t>print(li2)</t>
+  </si>
+  <si>
+    <t># 염기 코돈 개수</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 염기 서열을 입력했을 때 어떤 코돈이 몇 개 존재하는지 </t>
+  </si>
+  <si>
+    <t># 다음과 같이 출력하는 프로그램을 구현해 보세요.</t>
+  </si>
+  <si>
+    <t>dict2 = {}</t>
+  </si>
+  <si>
+    <t>ipt2 = input("염기 서열을 입력해 주세요:")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for i in range(0, len(ipt2), 3):    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    str1 = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    try:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        str1 = ipt2[i] + ipt2[i+1] +ipt2[i+2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    except:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("", end="")    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if bool(dict2) == False:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dict2[str1] = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if str1 in dict2.keys():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if str1 != "":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dict2[str1] += 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dict2[str1] = 1 </t>
+  </si>
+  <si>
+    <t>print(dict2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>리스트 숫자 중복 제거 및 합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 숫자의 종류</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 다음리스트에서 몇 가지 종류의 숫자가 사용되었는지 구하는 프로그램을 만들어 보세요. </t>
+  </si>
+  <si>
+    <t># 1, 2, 3, 4가 사용되었으므로 4개가 사용되었다고 출력하면 됩니다</t>
+  </si>
+  <si>
+    <t>nums = [1,2,3,4,1,2,3,1,4,1,2,3]</t>
+  </si>
+  <si>
+    <t>count = {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for i in nums:    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if bool(count) == False:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        count[i] = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if i in count.keys():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            count[i] += 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            count[i] = 1</t>
+  </si>
+  <si>
+    <t>print(f"{nums}에서")</t>
+  </si>
+  <si>
+    <t>print(f"사용된 숫자의 종류는 {len(set(count))}개입니다.")</t>
+  </si>
+  <si>
+    <t>print(f"사용된 숫자의 종류는 {len(count.keys())}개입니다.")</t>
+  </si>
+  <si>
+    <t>print("참고:", count)</t>
+  </si>
+  <si>
+    <t>2진수 0의 개수 카운트하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># ------------------------------------------------------</t>
+  </si>
+  <si>
+    <t># 2진수, 8진수, 16진수로 변환하는 코드는 많이 사용됩니다.</t>
+  </si>
+  <si>
+    <t>#     다음과 같은 형태로 10진수를 변환할 수 있습니다.</t>
+  </si>
+  <si>
+    <t># 강사님 해답:</t>
+  </si>
+  <si>
+    <t># output = [i for i in range(1, 100+1) if "{:b}".format(i).count("0") == 1]</t>
+  </si>
+  <si>
+    <t># for i in output:</t>
+  </si>
+  <si>
+    <t>#     print("{} : {}".format(i, "{:b}".format(i)))</t>
+  </si>
+  <si>
+    <t># print("sum:", sum(output))</t>
+  </si>
+  <si>
+    <t>output = [i for i in range(1, 100+1) if f"{i:b}".count("0") == 1]</t>
+  </si>
+  <si>
+    <t>for x, value in enumerate(output):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(f"{value} : {value:b}")</t>
+  </si>
+  <si>
+    <t>print("합계:", sum(output))</t>
+  </si>
+  <si>
+    <t># 다음 중 enumerate() 함수와 items() 함수의 사용법으로 올바른 것은?</t>
+  </si>
+  <si>
+    <t># 현재 인덱스가 몇 번째인지 확인하기 : enumerate()</t>
+  </si>
+  <si>
+    <t># list(enumerate([1234324,234,234,234,423]))[1]</t>
+  </si>
+  <si>
+    <t># 딕셔너리.items()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,6 +1407,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF8B949E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1447,7 +1647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1567,6 +1767,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2107,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8643977C-A067-4C33-B0A8-658AE0A3A2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T36"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -2959,7 +3162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662AAAFD-E456-4291-812C-7A0F7F9D2F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B45"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -3151,7 +3354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46577B-A38D-4F2F-8D0B-4F45FAE04A69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3164,7 +3367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5BDAE5-CBE5-487E-BD41-3E142EF656DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3244,15 +3447,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{C27949B8-B669-4F94-B4CA-C6C079C12856}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{45AE58EB-32BF-4BD5-BBED-4A81318AAAA2}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C094A0-5954-4EC1-9E5B-5BF05ABDB40A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3404,7 +3607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE7CA56-6260-453E-899E-D0485F695165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C46"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -3634,7 +3837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A3DF72-F4DC-4410-9F57-CDEE8532AC1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3686,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA76733-CB72-4885-B631-B5DFB7B67C2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3756,11 +3959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5742511C-F6C2-4D8F-AD8F-0806C110200B}">
-  <dimension ref="B2:L68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:B68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3984,85 +4187,435 @@
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>210</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4071,11 +4624,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A05455-5B8A-4366-A5B2-21DF9A535D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4091,7 +4645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD498B0-A2E8-4118-BE41-F31E68278A6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId8"/>
     <sheet name="테이블연습" sheetId="8" r:id="rId9"/>
     <sheet name="반복문" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="함수" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="282">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1251,6 +1251,30 @@
   </si>
   <si>
     <t># 딕셔너리.items()</t>
+  </si>
+  <si>
+    <t>scope룰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수의 사용 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수가 코드에서 사용되는 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수의 사용범위를 고려해야 될 2가지'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 지역변수(local variable) : 함수 내에서만 사용가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 전역변수(global variable) : 프로그램 전체에서만 사용가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1647,7 +1671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1759,6 +1783,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1768,7 +1795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2440,16 +2467,16 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -2966,21 +2993,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="39">
         <v>3</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39">
         <v>5</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38">
-        <v>1</v>
-      </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39">
+        <v>1</v>
+      </c>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -3026,18 +3053,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38">
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39">
         <v>9</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -3080,21 +3107,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="39">
         <v>3</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39">
         <v>7</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38">
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39">
         <v>2</v>
       </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="6">
@@ -3129,18 +3156,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38" t="s">
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3355,12 +3382,48 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3962,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123:H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4039,10 +4102,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -4187,22 +4250,22 @@
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="37" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="37" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="37" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="37" t="s">
         <v>275</v>
       </c>
     </row>

--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="테이블연습" sheetId="8" r:id="rId9"/>
     <sheet name="반복문" sheetId="10" r:id="rId10"/>
     <sheet name="함수" sheetId="11" r:id="rId11"/>
+    <sheet name="기초수학" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="319">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1276,12 +1278,299 @@
     <t>2. 전역변수(global variable) : 프로그램 전체에서만 사용가능.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항 = 숫자 또는 문자의 곱, 구성된 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자와 문자를 곱한 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자와 문자를 곱한 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a는 1과 a를 곱한것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상수항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항 중에서 숫자만 있는 항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x+y+1이라는 식에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가 2가 계수, 1은 상수항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coefficient 계수(係數: 3x에서 3과 같은 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수란 일반적으로 어떤 변수에 곱해진 인자이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다항식에서의 계수란 변수들의 거듭제곱에 곱해진 수이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3 은 상수항이자 계수이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 상수항 -3도 계수에 포함된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-3 상수는 x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x의 0제곱)과 -3의 곱으로 볼 수 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단항식 과 다항식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단항식 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항이 하나로 된식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다항식 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항이 두 개 이상인 항의 합으로 된 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차수는 문자를 곱한 횟수를 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-3은 x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이므로, 차수는??</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>은 y를 1번 곱해서, 차수는 1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>는 x를 2번 곱해서, 차수가 2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x를 기준으로 차수를 구하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y에 대한 1차식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x에 대한 2차식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식이란?? 변수와 상수를 연산자로 이용하여 표현한 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서로 다른 n개를 나열하는 경우의 수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,6 +1726,23 @@
       <color rgb="FF8B949E"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1671,7 +1977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1786,6 +2092,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,9 +2106,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2030,6 +2339,163 @@
         <a:xfrm>
           <a:off x="680356" y="20002499"/>
           <a:ext cx="13062857" cy="8803821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9812</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="3676650"/>
+          <a:ext cx="2057687" cy="1981477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="3714750"/>
+          <a:ext cx="3657600" cy="3435435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>334012</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>105000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="5619750"/>
+          <a:ext cx="4563112" cy="1609950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324124</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="9715500"/>
+          <a:ext cx="1962424" cy="1247949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2467,16 +2933,16 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -2993,21 +3459,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="41">
         <v>3</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39">
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41">
         <v>5</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39">
-        <v>1</v>
-      </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41">
+        <v>1</v>
+      </c>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -3053,18 +3519,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39">
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41">
         <v>9</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -3107,21 +3573,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="41">
         <v>3</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39">
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41">
         <v>7</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39">
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41">
         <v>2</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="6">
@@ -3156,18 +3622,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39" t="s">
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3384,7 +3850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3394,7 +3860,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3424,6 +3890,213 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>311</v>
+      </c>
+      <c r="I48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>310</v>
+      </c>
+      <c r="I49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4102,10 +4775,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="40"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">

--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
-    <sheet name="컴퓨터상식" sheetId="2" r:id="rId2"/>
-    <sheet name="자료형" sheetId="3" r:id="rId3"/>
-    <sheet name="연산자" sheetId="9" r:id="rId4"/>
-    <sheet name="클래스" sheetId="4" r:id="rId5"/>
-    <sheet name="문자열" sheetId="5" r:id="rId6"/>
-    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId7"/>
-    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId8"/>
-    <sheet name="테이블연습" sheetId="8" r:id="rId9"/>
-    <sheet name="반복문" sheetId="10" r:id="rId10"/>
-    <sheet name="함수" sheetId="11" r:id="rId11"/>
-    <sheet name="기초수학" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
+    <sheet name="그리스문자" sheetId="14" r:id="rId2"/>
+    <sheet name="컴퓨터상식" sheetId="2" r:id="rId3"/>
+    <sheet name="자료형" sheetId="3" r:id="rId4"/>
+    <sheet name="연산자" sheetId="9" r:id="rId5"/>
+    <sheet name="클래스" sheetId="4" r:id="rId6"/>
+    <sheet name="문자열" sheetId="5" r:id="rId7"/>
+    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId8"/>
+    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId9"/>
+    <sheet name="테이블연습" sheetId="8" r:id="rId10"/>
+    <sheet name="반복문" sheetId="10" r:id="rId11"/>
+    <sheet name="함수" sheetId="11" r:id="rId12"/>
+    <sheet name="기초수학" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="328">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,12 +1566,41 @@
     <t xml:space="preserve">서로 다른 n개를 나열하는 경우의 수 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>피보나치</t>
+  </si>
+  <si>
+    <t>점화식을 사용해 수열의 항이 이어지는 형태를 간결하게 표현</t>
+  </si>
+  <si>
+    <t>첫째 및 둘째 항이 1이며 그 뒤의 모든 항은 바로 앞 두 항의 합인 수열(컴퓨터에서는 배열이나 리스트)</t>
+  </si>
+  <si>
+    <t>재귀</t>
+  </si>
+  <si>
+    <t>수열 (sequence)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 자료구조는 크게 두가지로 나뉨              선형자료구조      스택  큐</t>
+  </si>
+  <si>
+    <t># 비선형자료구조       그래프(점 : node), 선(edge)의 집합  트리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1744,8 +1774,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE6EDF3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1821,6 +1882,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1977,7 +2044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2107,6 +2174,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2126,6 +2226,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="C:\Users\shjung\Pictures\Screenshots\스크린샷 2024-07-29 143905_그리스문자.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="323850" y="161925"/>
+          <a:ext cx="7391400" cy="3295650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2350,7 +2510,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2810,7 +2970,7 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -2832,7 +2992,7 @@
     <col min="27" max="28" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2861,7 +3021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +3047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2895,12 +3055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20">
       <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20">
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +3092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20">
       <c r="D7" s="40" t="s">
         <v>10</v>
       </c>
@@ -2947,7 +3107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20">
       <c r="D8">
         <v>0</v>
       </c>
@@ -2976,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20">
       <c r="D9">
         <v>0</v>
       </c>
@@ -3005,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20">
       <c r="D10">
         <v>0</v>
       </c>
@@ -3034,7 +3194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20">
       <c r="D11">
         <v>0</v>
       </c>
@@ -3063,7 +3223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20">
       <c r="D12">
         <v>0</v>
       </c>
@@ -3092,7 +3252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20">
       <c r="D13">
         <v>0</v>
       </c>
@@ -3121,7 +3281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20">
       <c r="D14">
         <v>0</v>
       </c>
@@ -3150,7 +3310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20">
       <c r="D15">
         <v>0</v>
       </c>
@@ -3179,7 +3339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20">
       <c r="D16" s="1">
         <v>1</v>
       </c>
@@ -3208,7 +3368,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14">
       <c r="D17">
         <v>1</v>
       </c>
@@ -3238,7 +3398,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14">
       <c r="D19">
         <v>7</v>
       </c>
@@ -3264,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14">
       <c r="D20">
         <f t="shared" ref="D20:J20" si="0">2^D19</f>
         <v>128</v>
@@ -3298,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14">
       <c r="D22">
         <v>0</v>
       </c>
@@ -3327,7 +3487,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14">
       <c r="D23">
         <v>0</v>
       </c>
@@ -3356,7 +3516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14">
       <c r="C24">
         <v>1</v>
       </c>
@@ -3388,7 +3548,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14">
       <c r="D25">
         <v>1</v>
       </c>
@@ -3417,7 +3577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -3455,7 +3615,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -3475,12 +3635,12 @@
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14">
       <c r="B28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14">
       <c r="B29" t="s">
         <v>36</v>
       </c>
@@ -3515,7 +3675,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -3532,12 +3692,12 @@
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14">
       <c r="B31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14">
       <c r="C33" s="8">
         <v>0</v>
       </c>
@@ -3569,7 +3729,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14">
       <c r="B34" t="s">
         <v>37</v>
       </c>
@@ -3589,7 +3749,7 @@
       <c r="J34" s="41"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14">
       <c r="D35" s="6">
         <v>1</v>
       </c>
@@ -3618,7 +3778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" ht="41.25" customHeight="1">
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
@@ -3656,188 +3816,76 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:B45"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>197</v>
-      </c>
+    <row r="2" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:5">
+      <c r="B3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="28">
+        <v>2</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="2:5" ht="17.25" thickBot="1">
+      <c r="B7" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3848,43 +3896,235 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" s="5" customFormat="1">
       <c r="B3" s="38" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>281</v>
       </c>
@@ -3895,31 +4135,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I61"/>
+  <dimension ref="A2:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="5" customFormat="1">
       <c r="B2" s="38" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>284</v>
       </c>
@@ -3930,7 +4170,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>286</v>
       </c>
@@ -3941,32 +4181,32 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8">
       <c r="E8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" s="5" customFormat="1">
       <c r="B10" s="38" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8">
       <c r="D12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8">
       <c r="D13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" s="5" customFormat="1">
       <c r="B15" s="38" t="s">
         <v>295</v>
       </c>
@@ -3974,37 +4214,37 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8">
       <c r="C16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9">
       <c r="B36" s="35" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9">
       <c r="B37" s="35" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9">
       <c r="B38" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" s="5" customFormat="1">
       <c r="B40" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>303</v>
       </c>
@@ -4012,7 +4252,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9">
       <c r="B43" t="s">
         <v>305</v>
       </c>
@@ -4020,17 +4260,17 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" s="5" customFormat="1">
       <c r="B46" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9">
       <c r="B47" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9">
       <c r="B48" t="s">
         <v>311</v>
       </c>
@@ -4038,7 +4278,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9">
       <c r="B49" t="s">
         <v>310</v>
       </c>
@@ -4046,39 +4286,300 @@
         <v>314</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9">
       <c r="B50" s="35" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9">
       <c r="I51" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9">
       <c r="I52" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="2:9" s="5" customFormat="1">
+      <c r="B54" s="38" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9">
       <c r="B56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="2:9" s="5" customFormat="1">
+      <c r="B60" s="38" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9">
       <c r="B61" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" s="46" customFormat="1">
+      <c r="A65" s="43"/>
+      <c r="B65" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" s="45"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+    </row>
+    <row r="66" spans="1:26" s="46" customFormat="1">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="47"/>
+    </row>
+    <row r="67" spans="1:26" s="46" customFormat="1">
+      <c r="A67" s="47"/>
+      <c r="B67" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="47"/>
+      <c r="Z67" s="47"/>
+    </row>
+    <row r="68" spans="1:26" s="46" customFormat="1">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="47"/>
+      <c r="Y68" s="47"/>
+      <c r="Z68" s="47"/>
+    </row>
+    <row r="69" spans="1:26" s="46" customFormat="1">
+      <c r="A69" s="47"/>
+      <c r="B69" s="49">
+        <v>1</v>
+      </c>
+      <c r="C69" s="49">
+        <v>1</v>
+      </c>
+      <c r="D69" s="49">
+        <v>2</v>
+      </c>
+      <c r="E69" s="49">
+        <v>3</v>
+      </c>
+      <c r="F69" s="49">
+        <v>5</v>
+      </c>
+      <c r="G69" s="49">
+        <v>8</v>
+      </c>
+      <c r="H69" s="49">
+        <v>13</v>
+      </c>
+      <c r="I69" s="49">
+        <v>21</v>
+      </c>
+      <c r="J69" s="49">
+        <v>34</v>
+      </c>
+      <c r="K69" s="49">
+        <v>55</v>
+      </c>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="47"/>
+    </row>
+    <row r="70" spans="1:26" s="46" customFormat="1">
+      <c r="A70" s="47"/>
+      <c r="B70" s="50">
+        <v>1</v>
+      </c>
+      <c r="C70" s="50">
+        <v>1</v>
+      </c>
+      <c r="D70" s="50">
+        <f>B70+C70</f>
+        <v>2</v>
+      </c>
+      <c r="E70" s="50">
+        <f t="shared" ref="E70:K70" si="0">C70+D70</f>
+        <v>3</v>
+      </c>
+      <c r="F70" s="50">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G70" s="50">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H70" s="50">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I70" s="50">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J70" s="50">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K70" s="50">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
+      <c r="X70" s="47"/>
+      <c r="Y70" s="47"/>
+      <c r="Z70" s="47"/>
+    </row>
+    <row r="72" spans="1:26" s="5" customFormat="1">
+      <c r="B72" s="38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" s="5" customFormat="1">
+      <c r="B75" s="38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="B76" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="B77" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="B78" s="51" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4089,13 +4590,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4104,13 +4605,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -4118,32 +4635,32 @@
     <col min="4" max="4" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -4154,7 +4671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -4162,7 +4679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -4170,12 +4687,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4">
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -4190,7 +4707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D29"/>
   <sheetViews>
@@ -4198,75 +4715,75 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2">
       <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2">
       <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2">
       <c r="B4" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2">
       <c r="B5" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2">
       <c r="B7" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2">
       <c r="B9" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2">
       <c r="B11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -4274,17 +4791,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="D18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>54</v>
       </c>
@@ -4292,7 +4809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -4300,7 +4817,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -4308,7 +4825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>57</v>
       </c>
@@ -4316,254 +4833,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="24">
       <c r="B25" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="24">
       <c r="B26" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="26.25">
       <c r="B27" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
         <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4574,48 +4861,226 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I9"/>
+  <dimension ref="B2:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
+    <row r="2" spans="2:3">
+      <c r="B2" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="36"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="36"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="36"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="36"/>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4626,66 +5091,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B3:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4696,13 +5143,83 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L149"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="H123" sqref="H123:H124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
@@ -4712,12 +5229,12 @@
     <col min="12" max="12" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -4725,7 +5242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>92</v>
       </c>
@@ -4736,7 +5253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -4747,7 +5264,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="E6" s="23" t="s">
         <v>88</v>
       </c>
@@ -4755,7 +5272,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="E7" s="23" t="s">
         <v>90</v>
       </c>
@@ -4766,7 +5283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="K8" s="33" t="s">
         <v>111</v>
       </c>
@@ -4774,23 +5291,23 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="K9" s="42" t="s">
         <v>109</v>
       </c>
       <c r="L9" s="42"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12">
       <c r="B18" s="34" t="s">
         <v>114</v>
       </c>
@@ -4807,142 +5324,142 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" s="5" customFormat="1">
       <c r="B24" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" s="5" customFormat="1">
       <c r="B25" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" s="5" customFormat="1">
       <c r="B26" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12">
       <c r="B32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12">
       <c r="B51" s="37" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12">
       <c r="B52" s="37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12">
       <c r="B53" s="37" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12">
       <c r="B54" s="37" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12">
       <c r="B56" s="5" t="s">
         <v>198</v>
       </c>
@@ -4959,397 +5476,397 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12">
       <c r="B58" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12">
       <c r="B60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12">
       <c r="B61" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12">
       <c r="B62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12">
       <c r="B64" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" s="5" customFormat="1">
       <c r="B76" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" s="5" customFormat="1">
       <c r="B89" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2">
       <c r="B95" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2">
       <c r="B96" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2">
       <c r="B97" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2">
       <c r="B98" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2">
       <c r="B99" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2">
       <c r="B100" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2">
       <c r="B101" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2">
       <c r="B102" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2">
       <c r="B103" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2">
       <c r="B104" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2">
       <c r="B105" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2">
       <c r="B106" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2">
       <c r="B107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2">
       <c r="B108" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2">
       <c r="B109" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2">
       <c r="B110" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2">
       <c r="B111" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" s="5" customFormat="1">
       <c r="B113" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2">
       <c r="B114" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2">
       <c r="B115" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2">
       <c r="B116" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2">
       <c r="B117" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2">
       <c r="B118" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2">
       <c r="B119" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2">
       <c r="B121" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2">
       <c r="B122" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2">
       <c r="B123" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2">
       <c r="B124" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2">
       <c r="B125" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2">
       <c r="B126" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2">
       <c r="B127" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2">
       <c r="B128" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2">
       <c r="B129" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2">
       <c r="B130" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2">
       <c r="B131" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2">
       <c r="B132" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="2:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" s="5" customFormat="1">
       <c r="B135" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2">
       <c r="B136" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2">
       <c r="B137" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2">
       <c r="B138" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2">
       <c r="B139" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2">
       <c r="B140" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2">
       <c r="B141" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2">
       <c r="B142" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2">
       <c r="B143" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2">
       <c r="B144" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2">
       <c r="B146" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2">
       <c r="B147" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2">
       <c r="B148" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2">
       <c r="B149" t="s">
         <v>271</v>
       </c>
@@ -5364,7 +5881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5372,90 +5889,10 @@
       <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="28">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="28">
-        <v>2</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="28">
-        <v>3</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -9,24 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
     <sheet name="그리스문자" sheetId="14" r:id="rId2"/>
     <sheet name="데이터타입(자료형)" sheetId="15" r:id="rId3"/>
-    <sheet name="컴퓨터상식" sheetId="2" r:id="rId4"/>
-    <sheet name="자료형" sheetId="3" r:id="rId5"/>
-    <sheet name="연산자" sheetId="9" r:id="rId6"/>
-    <sheet name="클래스" sheetId="4" r:id="rId7"/>
-    <sheet name="문자열" sheetId="5" r:id="rId8"/>
-    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId9"/>
-    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId10"/>
-    <sheet name="테이블연습" sheetId="8" r:id="rId11"/>
-    <sheet name="반복문" sheetId="10" r:id="rId12"/>
-    <sheet name="함수" sheetId="11" r:id="rId13"/>
-    <sheet name="기초수학" sheetId="12" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId15"/>
+    <sheet name="그래프양식1" sheetId="16" r:id="rId4"/>
+    <sheet name="컴퓨터상식" sheetId="2" r:id="rId5"/>
+    <sheet name="자료형" sheetId="3" r:id="rId6"/>
+    <sheet name="연산자" sheetId="9" r:id="rId7"/>
+    <sheet name="클래스" sheetId="4" r:id="rId8"/>
+    <sheet name="문자열" sheetId="5" r:id="rId9"/>
+    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId10"/>
+    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId11"/>
+    <sheet name="테이블연습" sheetId="8" r:id="rId12"/>
+    <sheet name="반복문" sheetId="10" r:id="rId13"/>
+    <sheet name="함수" sheetId="11" r:id="rId14"/>
+    <sheet name="기초수학" sheetId="12" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="513">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2154,6 +2155,90 @@
   </si>
   <si>
     <t>{} 연관배열(hashtable)</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=-ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=-x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=-2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=-3x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=3x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1x+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=1x-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2556,7 +2641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2699,6 +2784,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2708,7 +2822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2862,13 +2976,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2901,20 +3009,11 @@
     <xf numFmtId="0" fontId="35" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2925,19 +3024,10 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2949,9 +3039,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2961,14 +3048,62 @@
     <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3049,6 +3184,432 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 연결선 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="285751" y="652097"/>
+          <a:ext cx="2798884" cy="1633903"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>249115</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 연결선 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="586153" y="432289"/>
+          <a:ext cx="2168770" cy="2080846"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>109904</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153865</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="945173" y="190501"/>
+          <a:ext cx="1436077" cy="2601057"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219807</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 연결선 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="498230" y="3722077"/>
+          <a:ext cx="2381250" cy="2359270"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>159728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73269</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 연결선 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="4409343"/>
+          <a:ext cx="2888273" cy="961291"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="3678116"/>
+          <a:ext cx="1582615" cy="2645019"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>197829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>131884</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 연결선 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21981" y="7209694"/>
+          <a:ext cx="2798884" cy="1633902"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>263769</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>278422</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="직선 연결선 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="263769" y="7678617"/>
+          <a:ext cx="2798884" cy="1633902"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66138</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>206497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="직선 연결선 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="344561" y="8280766"/>
+          <a:ext cx="2784035" cy="1625234"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3273,7 +3834,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3856,16 +4417,16 @@
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -4382,21 +4943,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="77">
         <v>3</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52">
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77">
         <v>5</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52">
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77">
         <v>1</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" t="s">
@@ -4442,18 +5003,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52">
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77">
         <v>9</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
@@ -4496,21 +5057,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="77">
         <v>3</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52">
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77">
         <v>7</v>
       </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52">
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77">
         <v>2</v>
       </c>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
     </row>
     <row r="35" spans="2:14">
       <c r="D35" s="6">
@@ -4545,18 +5106,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52" t="s">
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4579,6 +5140,676 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L149"/>
+  <sheetViews>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123:H124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="E6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="E7" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="K8" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="K9" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="87"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1">
+      <c r="B24" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1">
+      <c r="B25" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1">
+      <c r="B26" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" s="5" customFormat="1">
+      <c r="B76" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" s="5" customFormat="1">
+      <c r="B89" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" s="5" customFormat="1">
+      <c r="B113" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" s="5" customFormat="1">
+      <c r="B135" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K9:L9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4593,7 +5824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
@@ -4673,7 +5904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B45"/>
   <sheetViews>
@@ -4865,7 +6096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
@@ -4914,7 +6145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z78"/>
   <sheetViews>
@@ -5369,7 +6600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5402,7 +6633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -5430,7 +6661,7 @@
       <c r="P1" s="44"/>
       <c r="Q1" s="44"/>
       <c r="R1" s="44"/>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="52" t="s">
         <v>328</v>
       </c>
       <c r="T1" s="44"/>
@@ -5551,13 +6782,13 @@
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
       <c r="P4" s="44"/>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="53" t="s">
         <v>339</v>
       </c>
       <c r="T4" s="44"/>
@@ -5594,31 +6825,31 @@
       <c r="H5" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="53" t="s">
         <v>345</v>
       </c>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="53" t="s">
         <v>346</v>
       </c>
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="R5" s="56" t="s">
+      <c r="R5" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="S5" s="55">
+      <c r="S5" s="53">
         <v>1</v>
       </c>
-      <c r="T5" s="57" t="s">
+      <c r="T5" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="U5" s="57">
+      <c r="U5" s="55">
         <v>-128</v>
       </c>
       <c r="V5" s="46">
@@ -5658,16 +6889,16 @@
       <c r="Q6" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="S6" s="55">
+      <c r="S6" s="53">
         <v>2</v>
       </c>
-      <c r="T6" s="57" t="s">
+      <c r="T6" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="U6" s="57">
+      <c r="U6" s="55">
         <v>-32768</v>
       </c>
       <c r="V6" s="46">
@@ -5700,34 +6931,34 @@
       <c r="H7" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="53">
         <f>-2 -1</f>
         <v>-3</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="53">
         <v>0</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="53" t="s">
         <v>353</v>
       </c>
       <c r="L7" s="44"/>
       <c r="M7" s="44"/>
-      <c r="N7" s="58" t="s">
+      <c r="N7" s="56" t="s">
         <v>354</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
-      <c r="R7" s="56" t="s">
+      <c r="R7" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="S7" s="55">
+      <c r="S7" s="53">
         <v>4</v>
       </c>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="U7" s="57">
+      <c r="U7" s="55">
         <v>-2147483648</v>
       </c>
       <c r="V7" s="46">
@@ -5765,13 +6996,13 @@
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="53">
         <v>8</v>
       </c>
-      <c r="T8" s="57" t="s">
+      <c r="T8" s="55" t="s">
         <v>358</v>
       </c>
       <c r="U8" s="44"/>
@@ -5799,21 +7030,21 @@
       <c r="H9" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="57">
         <v>3.4</v>
       </c>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="58" t="s">
         <v>360</v>
       </c>
       <c r="O9" s="45" t="s">
         <v>361</v>
       </c>
       <c r="P9" s="44"/>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="53" t="s">
         <v>362</v>
       </c>
       <c r="R9" s="40"/>
@@ -5849,7 +7080,7 @@
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
-      <c r="N10" s="61" t="s">
+      <c r="N10" s="59" t="s">
         <v>363</v>
       </c>
       <c r="O10" s="45" t="s">
@@ -5857,13 +7088,13 @@
       </c>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="53">
         <v>4</v>
       </c>
-      <c r="T10" s="57" t="s">
+      <c r="T10" s="55" t="s">
         <v>365</v>
       </c>
       <c r="U10" s="44"/>
@@ -5900,13 +7131,13 @@
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
-      <c r="R11" s="56" t="s">
+      <c r="R11" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="S11" s="55">
+      <c r="S11" s="53">
         <v>8</v>
       </c>
-      <c r="T11" s="57" t="s">
+      <c r="T11" s="55" t="s">
         <v>367</v>
       </c>
       <c r="U11" s="44"/>
@@ -5976,16 +7207,16 @@
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
-      <c r="R13" s="56" t="s">
+      <c r="R13" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="53">
         <v>2</v>
       </c>
-      <c r="T13" s="57" t="s">
+      <c r="T13" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="U13" s="57">
+      <c r="U13" s="55">
         <v>65536</v>
       </c>
       <c r="V13" s="44" t="s">
@@ -6008,7 +7239,7 @@
       <c r="B14" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="60" t="s">
         <v>372</v>
       </c>
       <c r="D14" s="45" t="s">
@@ -6029,13 +7260,13 @@
       <c r="O14" s="44"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="53">
         <v>1</v>
       </c>
-      <c r="T14" s="57" t="s">
+      <c r="T14" s="55" t="s">
         <v>347</v>
       </c>
       <c r="U14" s="44"/>
@@ -6107,7 +7338,7 @@
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
-      <c r="N16" s="63" t="s">
+      <c r="N16" s="61" t="s">
         <v>379</v>
       </c>
       <c r="O16" s="44"/>
@@ -6251,7 +7482,7 @@
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="53" t="s">
         <v>381</v>
       </c>
       <c r="O20" s="45" t="s">
@@ -7203,10 +8434,10 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="64" t="s">
+      <c r="H46" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="I46" s="64"/>
+      <c r="I46" s="81"/>
       <c r="J46" s="44"/>
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
@@ -7240,10 +8471,10 @@
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="55" t="s">
+      <c r="H47" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="I47" s="55" t="s">
+      <c r="I47" s="53" t="s">
         <v>405</v>
       </c>
       <c r="J47" s="44"/>
@@ -7279,10 +8510,10 @@
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
-      <c r="H48" s="56" t="s">
+      <c r="H48" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="I48" s="56" t="s">
+      <c r="I48" s="54" t="s">
         <v>407</v>
       </c>
       <c r="J48" s="45" t="s">
@@ -7403,7 +8634,7 @@
       <c r="N51" s="44"/>
       <c r="O51" s="44"/>
       <c r="P51" s="44"/>
-      <c r="Q51" s="54" t="s">
+      <c r="Q51" s="52" t="s">
         <v>411</v>
       </c>
       <c r="R51" s="44"/>
@@ -7441,7 +8672,7 @@
       <c r="O52" s="44"/>
       <c r="P52" s="44"/>
       <c r="Q52" s="44"/>
-      <c r="R52" s="54" t="s">
+      <c r="R52" s="52" t="s">
         <v>412</v>
       </c>
       <c r="S52" s="44"/>
@@ -7466,10 +8697,10 @@
         <v>413</v>
       </c>
       <c r="C53" s="44"/>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="62" t="s">
         <v>414</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" s="62" t="s">
         <v>415</v>
       </c>
       <c r="F53" s="44"/>
@@ -7488,7 +8719,7 @@
       <c r="O53" s="44"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="44"/>
-      <c r="R53" s="54" t="s">
+      <c r="R53" s="52" t="s">
         <v>418</v>
       </c>
       <c r="S53" s="44"/>
@@ -7511,10 +8742,10 @@
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="62" t="s">
         <v>419</v>
       </c>
-      <c r="E54" s="65" t="s">
+      <c r="E54" s="62" t="s">
         <v>420</v>
       </c>
       <c r="F54" s="44"/>
@@ -7530,7 +8761,7 @@
       <c r="N54" s="44"/>
       <c r="O54" s="44"/>
       <c r="P54" s="44"/>
-      <c r="Q54" s="54" t="s">
+      <c r="Q54" s="52" t="s">
         <v>422</v>
       </c>
       <c r="R54" s="44"/>
@@ -7556,10 +8787,10 @@
       <c r="C55" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="62" t="s">
         <v>425</v>
       </c>
       <c r="F55" s="44"/>
@@ -7573,7 +8804,7 @@
       <c r="N55" s="44"/>
       <c r="O55" s="44"/>
       <c r="P55" s="44"/>
-      <c r="Q55" s="55" t="s">
+      <c r="Q55" s="53" t="s">
         <v>426</v>
       </c>
       <c r="R55" s="44"/>
@@ -7611,7 +8842,7 @@
       <c r="O56" s="44"/>
       <c r="P56" s="44"/>
       <c r="Q56" s="44"/>
-      <c r="R56" s="55" t="s">
+      <c r="R56" s="53" t="s">
         <v>427</v>
       </c>
       <c r="S56" s="44"/>
@@ -7651,7 +8882,7 @@
       <c r="P57" s="44"/>
       <c r="Q57" s="44"/>
       <c r="R57" s="44"/>
-      <c r="S57" s="55" t="s">
+      <c r="S57" s="53" t="s">
         <v>429</v>
       </c>
       <c r="T57" s="44"/>
@@ -7725,7 +8956,7 @@
       <c r="P59" s="44"/>
       <c r="Q59" s="44"/>
       <c r="R59" s="44"/>
-      <c r="S59" s="55" t="s">
+      <c r="S59" s="53" t="s">
         <v>431</v>
       </c>
       <c r="T59" s="44"/>
@@ -7761,7 +8992,7 @@
       <c r="O60" s="44"/>
       <c r="P60" s="44"/>
       <c r="Q60" s="44"/>
-      <c r="R60" s="55" t="s">
+      <c r="R60" s="53" t="s">
         <v>432</v>
       </c>
       <c r="S60" s="44"/>
@@ -7798,7 +9029,7 @@
       <c r="O61" s="44"/>
       <c r="P61" s="44"/>
       <c r="Q61" s="44"/>
-      <c r="R61" s="54" t="s">
+      <c r="R61" s="52" t="s">
         <v>433</v>
       </c>
       <c r="S61" s="44"/>
@@ -7835,7 +9066,7 @@
       <c r="O62" s="44"/>
       <c r="P62" s="44"/>
       <c r="Q62" s="44"/>
-      <c r="R62" s="54" t="s">
+      <c r="R62" s="52" t="s">
         <v>434</v>
       </c>
       <c r="S62" s="44"/>
@@ -7872,7 +9103,7 @@
       <c r="O63" s="44"/>
       <c r="P63" s="44"/>
       <c r="Q63" s="44"/>
-      <c r="R63" s="54" t="s">
+      <c r="R63" s="52" t="s">
         <v>435</v>
       </c>
       <c r="S63" s="44"/>
@@ -7908,7 +9139,7 @@
       <c r="N64" s="44"/>
       <c r="O64" s="44"/>
       <c r="P64" s="44"/>
-      <c r="Q64" s="55" t="s">
+      <c r="Q64" s="53" t="s">
         <v>436</v>
       </c>
       <c r="R64" s="44"/>
@@ -8037,30 +9268,30 @@
     </row>
     <row r="68" spans="1:33" ht="30" customHeight="1">
       <c r="A68" s="40"/>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="63" t="s">
         <v>438</v>
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
-      <c r="E68" s="67" t="s">
+      <c r="E68" s="82" t="s">
         <v>439</v>
       </c>
-      <c r="F68" s="67"/>
+      <c r="F68" s="82"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
-      <c r="I68" s="68" t="s">
+      <c r="I68" s="83" t="s">
         <v>440</v>
       </c>
-      <c r="J68" s="68"/>
-      <c r="K68" s="69" t="b">
+      <c r="J68" s="83"/>
+      <c r="K68" s="64" t="b">
         <v>0</v>
       </c>
       <c r="L68" s="40"/>
-      <c r="M68" s="67" t="s">
+      <c r="M68" s="82" t="s">
         <v>441</v>
       </c>
-      <c r="N68" s="67"/>
-      <c r="O68" s="67"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="82"/>
       <c r="P68" s="40"/>
       <c r="Q68" s="40"/>
       <c r="R68" s="40"/>
@@ -8089,24 +9320,24 @@
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
-      <c r="I69" s="70" t="s">
+      <c r="I69" s="65" t="s">
         <v>442</v>
       </c>
-      <c r="J69" s="69" t="s">
+      <c r="J69" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="K69" s="66" t="s">
+      <c r="K69" s="63" t="s">
         <v>442</v>
       </c>
       <c r="L69" s="40"/>
-      <c r="M69" s="69" t="s">
+      <c r="M69" s="64" t="s">
         <v>444</v>
       </c>
       <c r="N69" s="40"/>
-      <c r="O69" s="69" t="s">
+      <c r="O69" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="P69" s="71" t="s">
+      <c r="P69" s="66" t="s">
         <v>446</v>
       </c>
       <c r="Q69" s="40"/>
@@ -8131,26 +9362,26 @@
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
-      <c r="D70" s="72" t="s">
+      <c r="D70" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="E70" s="73"/>
-      <c r="F70" s="74" t="s">
+      <c r="E70" s="67"/>
+      <c r="F70" s="68" t="s">
         <v>346</v>
       </c>
       <c r="G70" s="44"/>
       <c r="H70" s="44"/>
-      <c r="I70" s="75" t="s">
+      <c r="I70" s="84" t="s">
         <v>448</v>
       </c>
-      <c r="J70" s="76" t="s">
+      <c r="J70" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="K70" s="77" t="s">
+      <c r="K70" s="69" t="s">
         <v>450</v>
       </c>
       <c r="L70" s="44"/>
-      <c r="M70" s="72" t="s">
+      <c r="M70" s="80" t="s">
         <v>451</v>
       </c>
       <c r="N70" s="44"/>
@@ -8178,20 +9409,20 @@
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="74" t="s">
+      <c r="D71" s="80"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="68" t="s">
         <v>349</v>
       </c>
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="77" t="s">
+      <c r="I71" s="84"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="69" t="s">
         <v>452</v>
       </c>
       <c r="L71" s="44"/>
-      <c r="M71" s="72"/>
+      <c r="M71" s="80"/>
       <c r="N71" s="44"/>
       <c r="O71" s="44"/>
       <c r="P71" s="44"/>
@@ -8217,25 +9448,25 @@
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="78" t="s">
+      <c r="D72" s="80"/>
+      <c r="E72" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="F72" s="74" t="s">
+      <c r="F72" s="68" t="s">
         <v>355</v>
       </c>
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="76"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="85"/>
       <c r="K72" s="44"/>
       <c r="L72" s="44"/>
-      <c r="M72" s="72"/>
+      <c r="M72" s="80"/>
       <c r="N72" s="44"/>
-      <c r="O72" s="77" t="s">
+      <c r="O72" s="69" t="s">
         <v>454</v>
       </c>
-      <c r="P72" s="77" t="s">
+      <c r="P72" s="69" t="s">
         <v>454</v>
       </c>
       <c r="Q72" s="44"/>
@@ -8260,28 +9491,28 @@
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="74" t="s">
+      <c r="D73" s="80"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="68" t="s">
         <v>357</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="77" t="s">
+      <c r="I73" s="84"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="69" t="s">
         <v>455</v>
       </c>
       <c r="L73" s="44"/>
-      <c r="M73" s="72"/>
+      <c r="M73" s="80"/>
       <c r="N73" s="44"/>
-      <c r="O73" s="77" t="s">
+      <c r="O73" s="69" t="s">
         <v>456</v>
       </c>
-      <c r="P73" s="77" t="s">
+      <c r="P73" s="69" t="s">
         <v>456</v>
       </c>
-      <c r="Q73" s="79" t="s">
+      <c r="Q73" s="71" t="s">
         <v>457</v>
       </c>
       <c r="R73" s="44"/>
@@ -8305,21 +9536,21 @@
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="76"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="85"/>
       <c r="K74" s="44"/>
       <c r="L74" s="44"/>
-      <c r="M74" s="72"/>
+      <c r="M74" s="80"/>
       <c r="N74" s="44"/>
-      <c r="O74" s="77" t="s">
+      <c r="O74" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="P74" s="77" t="s">
+      <c r="P74" s="69" t="s">
         <v>355</v>
       </c>
       <c r="Q74" s="44"/>
@@ -8344,25 +9575,25 @@
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="80" t="s">
+      <c r="D75" s="80"/>
+      <c r="E75" s="86" t="s">
         <v>458</v>
       </c>
-      <c r="F75" s="81" t="s">
+      <c r="F75" s="72" t="s">
         <v>459</v>
       </c>
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="76"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="85"/>
       <c r="K75" s="44"/>
       <c r="L75" s="44"/>
-      <c r="M75" s="72"/>
+      <c r="M75" s="80"/>
       <c r="N75" s="44"/>
-      <c r="O75" s="77" t="s">
+      <c r="O75" s="69" t="s">
         <v>362</v>
       </c>
-      <c r="P75" s="77" t="s">
+      <c r="P75" s="69" t="s">
         <v>362</v>
       </c>
       <c r="Q75" s="44"/>
@@ -8387,23 +9618,23 @@
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="74" t="s">
+      <c r="D76" s="80"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="68" t="s">
         <v>366</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="76"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="85"/>
       <c r="K76" s="44"/>
       <c r="L76" s="44"/>
-      <c r="M76" s="72"/>
+      <c r="M76" s="80"/>
       <c r="N76" s="44"/>
-      <c r="O76" s="77" t="s">
+      <c r="O76" s="69" t="s">
         <v>366</v>
       </c>
-      <c r="P76" s="77" t="s">
+      <c r="P76" s="69" t="s">
         <v>366</v>
       </c>
       <c r="Q76" s="44"/>
@@ -8428,16 +9659,16 @@
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
-      <c r="I77" s="82"/>
-      <c r="J77" s="76"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="85"/>
       <c r="K77" s="44"/>
       <c r="L77" s="44"/>
-      <c r="M77" s="72"/>
+      <c r="M77" s="80"/>
       <c r="N77" s="44"/>
       <c r="O77" s="44"/>
       <c r="P77" s="44"/>
@@ -8463,36 +9694,36 @@
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="74" t="s">
+      <c r="D78" s="80"/>
+      <c r="E78" s="68" t="s">
         <v>460</v>
       </c>
-      <c r="F78" s="81" t="s">
+      <c r="F78" s="72" t="s">
         <v>461</v>
       </c>
       <c r="G78" s="44"/>
       <c r="H78" s="44"/>
-      <c r="I78" s="83" t="s">
+      <c r="I78" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="J78" s="76"/>
-      <c r="K78" s="77" t="s">
+      <c r="J78" s="85"/>
+      <c r="K78" s="69" t="s">
         <v>463</v>
       </c>
       <c r="L78" s="44"/>
-      <c r="M78" s="77" t="s">
+      <c r="M78" s="69" t="s">
         <v>464</v>
       </c>
-      <c r="N78" s="77" t="s">
+      <c r="N78" s="69" t="s">
         <v>465</v>
       </c>
-      <c r="O78" s="77" t="s">
+      <c r="O78" s="69" t="s">
         <v>466</v>
       </c>
-      <c r="P78" s="77" t="s">
+      <c r="P78" s="69" t="s">
         <v>466</v>
       </c>
-      <c r="Q78" s="77" t="s">
+      <c r="Q78" s="69" t="s">
         <v>467</v>
       </c>
       <c r="R78" s="44"/>
@@ -8516,28 +9747,28 @@
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
       <c r="G79" s="44"/>
       <c r="H79" s="44"/>
-      <c r="I79" s="82"/>
-      <c r="J79" s="76"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="85"/>
       <c r="K79" s="44"/>
       <c r="L79" s="44"/>
-      <c r="M79" s="77" t="s">
+      <c r="M79" s="69" t="s">
         <v>468</v>
       </c>
-      <c r="N79" s="77" t="s">
+      <c r="N79" s="69" t="s">
         <v>469</v>
       </c>
-      <c r="O79" s="77" t="s">
+      <c r="O79" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="P79" s="77" t="s">
+      <c r="P79" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="Q79" s="79" t="s">
+      <c r="Q79" s="71" t="s">
         <v>470</v>
       </c>
       <c r="R79" s="44"/>
@@ -8561,22 +9792,22 @@
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
-      <c r="I80" s="82"/>
-      <c r="J80" s="76"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="85"/>
       <c r="K80" s="44"/>
       <c r="L80" s="44"/>
-      <c r="M80" s="77" t="s">
+      <c r="M80" s="69" t="s">
         <v>471</v>
       </c>
-      <c r="N80" s="84" t="s">
+      <c r="N80" s="79" t="s">
         <v>472</v>
       </c>
-      <c r="O80" s="84"/>
+      <c r="O80" s="79"/>
       <c r="P80" s="44"/>
       <c r="Q80" s="44"/>
       <c r="R80" s="44"/>
@@ -8600,27 +9831,27 @@
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="85" t="s">
+      <c r="D81" s="80"/>
+      <c r="E81" s="78" t="s">
         <v>473</v>
       </c>
-      <c r="F81" s="85"/>
+      <c r="F81" s="78"/>
       <c r="G81" s="44"/>
       <c r="H81" s="44"/>
-      <c r="I81" s="83" t="s">
+      <c r="I81" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="J81" s="76"/>
+      <c r="J81" s="85"/>
       <c r="K81" s="44"/>
       <c r="L81" s="44"/>
-      <c r="M81" s="79" t="s">
+      <c r="M81" s="71" t="s">
         <v>474</v>
       </c>
       <c r="N81" s="44"/>
-      <c r="O81" s="77" t="s">
+      <c r="O81" s="69" t="s">
         <v>475</v>
       </c>
-      <c r="P81" s="77" t="s">
+      <c r="P81" s="69" t="s">
         <v>475</v>
       </c>
       <c r="Q81" s="44"/>
@@ -8654,10 +9885,10 @@
       <c r="J82" s="44"/>
       <c r="K82" s="44"/>
       <c r="L82" s="44"/>
-      <c r="M82" s="84" t="s">
+      <c r="M82" s="79" t="s">
         <v>476</v>
       </c>
-      <c r="N82" s="84"/>
+      <c r="N82" s="79"/>
       <c r="O82" s="44"/>
       <c r="P82" s="44"/>
       <c r="Q82" s="44"/>
@@ -8682,10 +9913,10 @@
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="E83" s="77" t="s">
+      <c r="E83" s="69" t="s">
         <v>478</v>
       </c>
       <c r="F83" s="44"/>
@@ -8721,8 +9952,8 @@
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="79" t="s">
+      <c r="D84" s="80"/>
+      <c r="E84" s="71" t="s">
         <v>479</v>
       </c>
       <c r="F84" s="44"/>
@@ -8758,14 +9989,14 @@
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="77" t="s">
+      <c r="D85" s="80"/>
+      <c r="E85" s="69" t="s">
         <v>480</v>
       </c>
-      <c r="F85" s="77" t="s">
+      <c r="F85" s="69" t="s">
         <v>481</v>
       </c>
-      <c r="G85" s="77" t="s">
+      <c r="G85" s="69" t="s">
         <v>389</v>
       </c>
       <c r="H85" s="44"/>
@@ -8773,14 +10004,14 @@
       <c r="J85" s="44"/>
       <c r="K85" s="44"/>
       <c r="L85" s="44"/>
-      <c r="M85" s="77" t="s">
+      <c r="M85" s="69" t="s">
         <v>482</v>
       </c>
       <c r="N85" s="44"/>
-      <c r="O85" s="77" t="s">
+      <c r="O85" s="69" t="s">
         <v>483</v>
       </c>
-      <c r="P85" s="77" t="s">
+      <c r="P85" s="69" t="s">
         <v>483</v>
       </c>
       <c r="Q85" s="44"/>
@@ -8805,8 +10036,8 @@
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="79" t="s">
+      <c r="D86" s="80"/>
+      <c r="E86" s="71" t="s">
         <v>484</v>
       </c>
       <c r="F86" s="44"/>
@@ -8818,10 +10049,10 @@
       <c r="L86" s="44"/>
       <c r="M86" s="44"/>
       <c r="N86" s="44"/>
-      <c r="O86" s="77" t="s">
+      <c r="O86" s="69" t="s">
         <v>485</v>
       </c>
-      <c r="P86" s="77" t="s">
+      <c r="P86" s="69" t="s">
         <v>486</v>
       </c>
       <c r="Q86" s="44"/>
@@ -8857,10 +10088,10 @@
       <c r="L87" s="44"/>
       <c r="M87" s="44"/>
       <c r="N87" s="44"/>
-      <c r="O87" s="77" t="s">
+      <c r="O87" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="P87" s="79" t="s">
+      <c r="P87" s="71" t="s">
         <v>487</v>
       </c>
       <c r="Q87" s="44"/>
@@ -8890,7 +10121,7 @@
       <c r="F88" s="44"/>
       <c r="G88" s="44"/>
       <c r="H88" s="44"/>
-      <c r="I88" s="86" t="s">
+      <c r="I88" s="75" t="s">
         <v>488</v>
       </c>
       <c r="J88" s="44"/>
@@ -8898,10 +10129,10 @@
       <c r="L88" s="44"/>
       <c r="M88" s="44"/>
       <c r="N88" s="44"/>
-      <c r="O88" s="77" t="s">
+      <c r="O88" s="69" t="s">
         <v>489</v>
       </c>
-      <c r="P88" s="77" t="s">
+      <c r="P88" s="69" t="s">
         <v>489</v>
       </c>
       <c r="Q88" s="44"/>
@@ -9001,13 +10232,13 @@
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
       <c r="H91" s="44"/>
-      <c r="I91" s="86" t="s">
+      <c r="I91" s="75" t="s">
         <v>490</v>
       </c>
-      <c r="J91" s="77" t="s">
+      <c r="J91" s="69" t="s">
         <v>491</v>
       </c>
-      <c r="K91" s="77" t="s">
+      <c r="K91" s="69" t="s">
         <v>452</v>
       </c>
       <c r="L91" s="44"/>
@@ -40875,6 +42106,659 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="13" width="3.625" customWidth="1"/>
+    <col min="15" max="18" width="5.625" style="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="92" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="89"/>
+      <c r="H2" s="88" t="s">
+        <v>509</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88" t="s">
+        <v>508</v>
+      </c>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="O2" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="P2" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="51">
+        <v>2</v>
+      </c>
+      <c r="R2" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" t="s">
+        <v>494</v>
+      </c>
+      <c r="O3" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>498</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88" t="s">
+        <v>507</v>
+      </c>
+      <c r="M4" s="88"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="92" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="92" t="s">
+        <v>493</v>
+      </c>
+      <c r="G18" s="89"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="O18" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="P18" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="51">
+        <v>2</v>
+      </c>
+      <c r="R18" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" t="s">
+        <v>503</v>
+      </c>
+      <c r="O19" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="P19" s="93" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q19" s="93" t="s">
+        <v>501</v>
+      </c>
+      <c r="R19" s="93" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="92" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88" t="s">
+        <v>505</v>
+      </c>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="J31" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="92" t="s">
+        <v>493</v>
+      </c>
+      <c r="G35" s="89"/>
+      <c r="H35" s="88" t="s">
+        <v>510</v>
+      </c>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88" t="s">
+        <v>511</v>
+      </c>
+      <c r="M36" s="88"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="M37" s="88"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88" t="s">
+        <v>512</v>
+      </c>
+      <c r="M39" s="88"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="92" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40961,7 +42845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D29"/>
   <sheetViews>
@@ -41113,7 +42997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C46"/>
   <sheetViews>
@@ -41343,7 +43227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I9"/>
   <sheetViews>
@@ -41395,7 +43279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
@@ -41463,674 +43347,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L149"/>
-  <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123:H124"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="E6" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="E7" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="K8" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="K9" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="5" customFormat="1">
-      <c r="B24" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1">
-      <c r="B25" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="5" customFormat="1">
-      <c r="B26" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="B62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="B64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" s="5" customFormat="1">
-      <c r="B76" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" s="5" customFormat="1">
-      <c r="B89" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" s="5" customFormat="1">
-      <c r="B113" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" s="5" customFormat="1">
-      <c r="B135" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K9:L9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -9,27 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
     <sheet name="그리스문자" sheetId="14" r:id="rId2"/>
     <sheet name="데이터타입(자료형)" sheetId="15" r:id="rId3"/>
     <sheet name="그래프양식1" sheetId="16" r:id="rId4"/>
-    <sheet name="컴퓨터상식" sheetId="2" r:id="rId5"/>
-    <sheet name="자료형" sheetId="3" r:id="rId6"/>
-    <sheet name="연산자" sheetId="9" r:id="rId7"/>
-    <sheet name="클래스" sheetId="4" r:id="rId8"/>
-    <sheet name="문자열" sheetId="5" r:id="rId9"/>
-    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId10"/>
-    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId11"/>
-    <sheet name="테이블연습" sheetId="8" r:id="rId12"/>
-    <sheet name="반복문" sheetId="10" r:id="rId13"/>
-    <sheet name="함수" sheetId="11" r:id="rId14"/>
-    <sheet name="기초수학" sheetId="12" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId16"/>
+    <sheet name="머신러닝기초_Transpose_전치" sheetId="17" r:id="rId5"/>
+    <sheet name="컴퓨터상식" sheetId="2" r:id="rId6"/>
+    <sheet name="자료형" sheetId="3" r:id="rId7"/>
+    <sheet name="연산자" sheetId="9" r:id="rId8"/>
+    <sheet name="클래스" sheetId="4" r:id="rId9"/>
+    <sheet name="문자열" sheetId="5" r:id="rId10"/>
+    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId11"/>
+    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId12"/>
+    <sheet name="테이블연습" sheetId="8" r:id="rId13"/>
+    <sheet name="반복문" sheetId="10" r:id="rId14"/>
+    <sheet name="함수" sheetId="11" r:id="rId15"/>
+    <sheet name="기초수학" sheetId="12" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="561">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2238,6 +2240,281 @@
   </si>
   <si>
     <t>y=1x-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">키 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜스포즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">transpose 전치 : 위치를 전환한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게?? 행과 열을 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차=잔차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x-x평균) 제곱의합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x-x평균)(y-y평균)의합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편차(키)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편차(몸무게)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편차란??? 평균과의 차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공분산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 : -1 ~ 0 ~ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공분산 -&gt; 상관 (corelation: corr(키, 몸무게)) -&gt; 분산 --&gt; 회귀 -&gt; 인과관계 분석가능 -&gt; machine learning, deep learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측식 : y = ax + b</t>
+  </si>
+  <si>
+    <t>키편차*몸무게 편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제곱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean(y) - (mean(x)*a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기울기(a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y절편(b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y= 0.98x-102.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163정도 키면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg 정도 예측 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차함수 와 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y=x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y=-x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y=ax</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2641,7 +2918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2813,6 +3090,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2822,7 +3108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3051,6 +3337,36 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3084,26 +3400,59 @@
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3121,6 +3470,4023 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>머신러닝기초_Transpose_전치!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>몸무게</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$D$16:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BDE-4353-BBC6-11518C4399CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1603490176"/>
+        <c:axId val="1603496416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1603490176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="145"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603496416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1603496416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603490176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$K$37:$K$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$L$37:$L$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1DE-4410-99B4-C7C7B2B375E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="703269471"/>
+        <c:axId val="703271551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="703269471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703271551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="703271551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703269471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$D$61:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$E$61:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F2D-498E-A02A-91B7CF4E62E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="703256991"/>
+        <c:axId val="703269471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="703256991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703269471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="703269471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703256991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$J$61:$J$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$K$61:$K$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-132F-48C5-9935-D48E4B8DF944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$J$61:$J$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$L$61:$L$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-132F-48C5-9935-D48E4B8DF944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$J$61:$J$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>머신러닝기초_Transpose_전치!$M$61:$M$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-132F-48C5-9935-D48E4B8DF944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="706091983"/>
+        <c:axId val="706095727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="706091983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706095727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="706095727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706091983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3611,6 +7977,216 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306457</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173936</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 화살표 연결선 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4572000" y="2112065"/>
+          <a:ext cx="5474804" cy="1789045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79602</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>21171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687457" y="7487478"/>
+          <a:ext cx="6573167" cy="3334215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>430697</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>24019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>505240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>75371</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>24020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>40584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3834,7 +8410,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4417,16 +8993,16 @@
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -4943,21 +9519,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="87">
         <v>3</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77">
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87">
         <v>5</v>
       </c>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77">
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87">
         <v>1</v>
       </c>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" t="s">
@@ -5003,18 +9579,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77">
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87">
         <v>9</v>
       </c>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
@@ -5057,21 +9633,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="77">
+      <c r="C34" s="87">
         <v>3</v>
       </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77">
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87">
         <v>7</v>
       </c>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77">
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87">
         <v>2</v>
       </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
     </row>
     <row r="35" spans="2:14">
       <c r="D35" s="6">
@@ -5106,18 +9682,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="77" t="s">
+      <c r="D36" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77" t="s">
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5140,6 +9716,76 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L149"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
@@ -5219,10 +9865,10 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="99"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" t="s">
@@ -5808,7 +10454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5824,7 +10470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
@@ -5904,7 +10550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B45"/>
   <sheetViews>
@@ -6096,7 +10742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
@@ -6145,7 +10791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z78"/>
   <sheetViews>
@@ -6600,7 +11246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8434,10 +13080,10 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="91" t="s">
         <v>403</v>
       </c>
-      <c r="I46" s="81"/>
+      <c r="I46" s="91"/>
       <c r="J46" s="44"/>
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
@@ -9273,25 +13919,25 @@
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
-      <c r="E68" s="82" t="s">
+      <c r="E68" s="92" t="s">
         <v>439</v>
       </c>
-      <c r="F68" s="82"/>
+      <c r="F68" s="92"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
-      <c r="I68" s="83" t="s">
+      <c r="I68" s="93" t="s">
         <v>440</v>
       </c>
-      <c r="J68" s="83"/>
+      <c r="J68" s="93"/>
       <c r="K68" s="64" t="b">
         <v>0</v>
       </c>
       <c r="L68" s="40"/>
-      <c r="M68" s="82" t="s">
+      <c r="M68" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="N68" s="82"/>
-      <c r="O68" s="82"/>
+      <c r="N68" s="92"/>
+      <c r="O68" s="92"/>
       <c r="P68" s="40"/>
       <c r="Q68" s="40"/>
       <c r="R68" s="40"/>
@@ -9362,7 +14008,7 @@
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
-      <c r="D70" s="80" t="s">
+      <c r="D70" s="90" t="s">
         <v>447</v>
       </c>
       <c r="E70" s="67"/>
@@ -9371,17 +14017,17 @@
       </c>
       <c r="G70" s="44"/>
       <c r="H70" s="44"/>
-      <c r="I70" s="84" t="s">
+      <c r="I70" s="94" t="s">
         <v>448</v>
       </c>
-      <c r="J70" s="85" t="s">
+      <c r="J70" s="95" t="s">
         <v>449</v>
       </c>
       <c r="K70" s="69" t="s">
         <v>450</v>
       </c>
       <c r="L70" s="44"/>
-      <c r="M70" s="80" t="s">
+      <c r="M70" s="90" t="s">
         <v>451</v>
       </c>
       <c r="N70" s="44"/>
@@ -9409,20 +14055,20 @@
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
-      <c r="D71" s="80"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="67"/>
       <c r="F71" s="68" t="s">
         <v>349</v>
       </c>
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="85"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="95"/>
       <c r="K71" s="69" t="s">
         <v>452</v>
       </c>
       <c r="L71" s="44"/>
-      <c r="M71" s="80"/>
+      <c r="M71" s="90"/>
       <c r="N71" s="44"/>
       <c r="O71" s="44"/>
       <c r="P71" s="44"/>
@@ -9448,7 +14094,7 @@
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
-      <c r="D72" s="80"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="70" t="s">
         <v>453</v>
       </c>
@@ -9457,11 +14103,11 @@
       </c>
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="85"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="95"/>
       <c r="K72" s="44"/>
       <c r="L72" s="44"/>
-      <c r="M72" s="80"/>
+      <c r="M72" s="90"/>
       <c r="N72" s="44"/>
       <c r="O72" s="69" t="s">
         <v>454</v>
@@ -9491,20 +14137,20 @@
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
-      <c r="D73" s="80"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="67"/>
       <c r="F73" s="68" t="s">
         <v>357</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="85"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="95"/>
       <c r="K73" s="69" t="s">
         <v>455</v>
       </c>
       <c r="L73" s="44"/>
-      <c r="M73" s="80"/>
+      <c r="M73" s="90"/>
       <c r="N73" s="44"/>
       <c r="O73" s="69" t="s">
         <v>456</v>
@@ -9536,16 +14182,16 @@
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
-      <c r="D74" s="80"/>
+      <c r="D74" s="90"/>
       <c r="E74" s="67"/>
       <c r="F74" s="67"/>
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="85"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="95"/>
       <c r="K74" s="44"/>
       <c r="L74" s="44"/>
-      <c r="M74" s="80"/>
+      <c r="M74" s="90"/>
       <c r="N74" s="44"/>
       <c r="O74" s="69" t="s">
         <v>355</v>
@@ -9575,8 +14221,8 @@
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="86" t="s">
+      <c r="D75" s="90"/>
+      <c r="E75" s="96" t="s">
         <v>458</v>
       </c>
       <c r="F75" s="72" t="s">
@@ -9584,11 +14230,11 @@
       </c>
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="85"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="95"/>
       <c r="K75" s="44"/>
       <c r="L75" s="44"/>
-      <c r="M75" s="80"/>
+      <c r="M75" s="90"/>
       <c r="N75" s="44"/>
       <c r="O75" s="69" t="s">
         <v>362</v>
@@ -9618,18 +14264,18 @@
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="86"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="96"/>
       <c r="F76" s="68" t="s">
         <v>366</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="85"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="95"/>
       <c r="K76" s="44"/>
       <c r="L76" s="44"/>
-      <c r="M76" s="80"/>
+      <c r="M76" s="90"/>
       <c r="N76" s="44"/>
       <c r="O76" s="69" t="s">
         <v>366</v>
@@ -9659,16 +14305,16 @@
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
-      <c r="D77" s="80"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="67"/>
       <c r="F77" s="67"/>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
       <c r="I77" s="73"/>
-      <c r="J77" s="85"/>
+      <c r="J77" s="95"/>
       <c r="K77" s="44"/>
       <c r="L77" s="44"/>
-      <c r="M77" s="80"/>
+      <c r="M77" s="90"/>
       <c r="N77" s="44"/>
       <c r="O77" s="44"/>
       <c r="P77" s="44"/>
@@ -9694,7 +14340,7 @@
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
-      <c r="D78" s="80"/>
+      <c r="D78" s="90"/>
       <c r="E78" s="68" t="s">
         <v>460</v>
       </c>
@@ -9706,7 +14352,7 @@
       <c r="I78" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="J78" s="85"/>
+      <c r="J78" s="95"/>
       <c r="K78" s="69" t="s">
         <v>463</v>
       </c>
@@ -9747,13 +14393,13 @@
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
-      <c r="D79" s="80"/>
+      <c r="D79" s="90"/>
       <c r="E79" s="67"/>
       <c r="F79" s="67"/>
       <c r="G79" s="44"/>
       <c r="H79" s="44"/>
       <c r="I79" s="73"/>
-      <c r="J79" s="85"/>
+      <c r="J79" s="95"/>
       <c r="K79" s="44"/>
       <c r="L79" s="44"/>
       <c r="M79" s="69" t="s">
@@ -9792,22 +14438,22 @@
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
-      <c r="D80" s="80"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="67"/>
       <c r="F80" s="67"/>
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
       <c r="I80" s="73"/>
-      <c r="J80" s="85"/>
+      <c r="J80" s="95"/>
       <c r="K80" s="44"/>
       <c r="L80" s="44"/>
       <c r="M80" s="69" t="s">
         <v>471</v>
       </c>
-      <c r="N80" s="79" t="s">
+      <c r="N80" s="89" t="s">
         <v>472</v>
       </c>
-      <c r="O80" s="79"/>
+      <c r="O80" s="89"/>
       <c r="P80" s="44"/>
       <c r="Q80" s="44"/>
       <c r="R80" s="44"/>
@@ -9831,17 +14477,17 @@
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="78" t="s">
+      <c r="D81" s="90"/>
+      <c r="E81" s="88" t="s">
         <v>473</v>
       </c>
-      <c r="F81" s="78"/>
+      <c r="F81" s="88"/>
       <c r="G81" s="44"/>
       <c r="H81" s="44"/>
       <c r="I81" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="J81" s="85"/>
+      <c r="J81" s="95"/>
       <c r="K81" s="44"/>
       <c r="L81" s="44"/>
       <c r="M81" s="71" t="s">
@@ -9885,10 +14531,10 @@
       <c r="J82" s="44"/>
       <c r="K82" s="44"/>
       <c r="L82" s="44"/>
-      <c r="M82" s="79" t="s">
+      <c r="M82" s="89" t="s">
         <v>476</v>
       </c>
-      <c r="N82" s="79"/>
+      <c r="N82" s="89"/>
       <c r="O82" s="44"/>
       <c r="P82" s="44"/>
       <c r="Q82" s="44"/>
@@ -9913,7 +14559,7 @@
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
-      <c r="D83" s="80" t="s">
+      <c r="D83" s="90" t="s">
         <v>477</v>
       </c>
       <c r="E83" s="69" t="s">
@@ -9952,7 +14598,7 @@
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
-      <c r="D84" s="80"/>
+      <c r="D84" s="90"/>
       <c r="E84" s="71" t="s">
         <v>479</v>
       </c>
@@ -9989,7 +14635,7 @@
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
-      <c r="D85" s="80"/>
+      <c r="D85" s="90"/>
       <c r="E85" s="69" t="s">
         <v>480</v>
       </c>
@@ -10036,7 +14682,7 @@
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
-      <c r="D86" s="80"/>
+      <c r="D86" s="90"/>
       <c r="E86" s="71" t="s">
         <v>484</v>
       </c>
@@ -42108,8 +46754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -42119,24 +46765,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="92" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="80" t="s">
         <v>493</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="88" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="76" t="s">
         <v>509</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88" t="s">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
       <c r="O2" s="51" t="s">
         <v>495</v>
       </c>
@@ -42151,18 +46797,18 @@
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
       <c r="N3" t="s">
         <v>494</v>
       </c>
@@ -42180,178 +46826,178 @@
       </c>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76" t="s">
         <v>507</v>
       </c>
-      <c r="M4" s="88"/>
+      <c r="M4" s="76"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="92" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="80" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="92" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="80" t="s">
         <v>493</v>
       </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
       <c r="O18" s="51" t="s">
         <v>495</v>
       </c>
@@ -42366,193 +47012,193 @@
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
       <c r="N19" t="s">
         <v>503</v>
       </c>
       <c r="O19" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="P19" s="93" t="s">
+      <c r="P19" s="81" t="s">
         <v>500</v>
       </c>
-      <c r="Q19" s="93" t="s">
+      <c r="Q19" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="R19" s="93" t="s">
+      <c r="R19" s="81" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="92" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="80" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88" t="s">
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76" t="s">
         <v>505</v>
       </c>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
     </row>
     <row r="31" spans="2:18">
       <c r="J31" t="s">
@@ -42560,194 +47206,194 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="92" t="s">
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="80" t="s">
         <v>493</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="88" t="s">
+      <c r="G35" s="77"/>
+      <c r="H35" s="76" t="s">
         <v>510</v>
       </c>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88" t="s">
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76" t="s">
         <v>511</v>
       </c>
-      <c r="M36" s="88"/>
+      <c r="M36" s="76"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="M37" s="88"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="M37" s="76"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88" t="s">
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76" t="s">
         <v>512</v>
       </c>
-      <c r="M39" s="88"/>
+      <c r="M39" s="76"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="92" t="s">
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="80" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -42758,6 +47404,1228 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:S81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" ht="17.25" thickBot="1"/>
+    <row r="4" spans="1:19">
+      <c r="A4" s="103"/>
+      <c r="B4" s="104" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>522</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="82"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="106" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" s="101">
+        <v>170</v>
+      </c>
+      <c r="C5" s="101">
+        <v>155</v>
+      </c>
+      <c r="D5" s="101">
+        <v>150</v>
+      </c>
+      <c r="E5" s="101">
+        <v>175</v>
+      </c>
+      <c r="F5" s="107">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A6" s="108" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" s="109">
+        <v>65</v>
+      </c>
+      <c r="C6" s="109">
+        <v>50</v>
+      </c>
+      <c r="D6" s="109">
+        <v>45</v>
+      </c>
+      <c r="E6" s="109">
+        <v>70</v>
+      </c>
+      <c r="F6" s="110">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="J8" t="s">
+        <v>536</v>
+      </c>
+      <c r="L8" s="84"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="C9" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" t="s">
+        <v>516</v>
+      </c>
+      <c r="S11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="E13" s="83" t="s">
+        <v>531</v>
+      </c>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83" t="s">
+        <v>531</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="J13" s="83"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.25" thickBot="1">
+      <c r="E14" s="82" t="s">
+        <v>527</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>539</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>527</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="111" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>514</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>528</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>540</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>529</v>
+      </c>
+      <c r="H15" s="100" t="s">
+        <v>538</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>532</v>
+      </c>
+      <c r="J15" s="83" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="113">
+        <v>170</v>
+      </c>
+      <c r="D16" s="101">
+        <v>65</v>
+      </c>
+      <c r="E16" s="107">
+        <f>C16-$C$21</f>
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <f>E16^2</f>
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <f>D16-$D$21</f>
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <f>E16*G16</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="C17" s="113">
+        <v>155</v>
+      </c>
+      <c r="D17" s="101">
+        <v>50</v>
+      </c>
+      <c r="E17" s="107">
+        <f t="shared" ref="E17:E20" si="0">C17-$C$21</f>
+        <v>-8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F20" si="1">E17^2</f>
+        <v>64</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G20" si="2">D17-$D$21</f>
+        <v>-7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H20" si="3">E17*G17</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="C18" s="113">
+        <v>150</v>
+      </c>
+      <c r="D18" s="101">
+        <v>45</v>
+      </c>
+      <c r="E18" s="107">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="C19" s="113">
+        <v>175</v>
+      </c>
+      <c r="D19" s="101">
+        <v>70</v>
+      </c>
+      <c r="E19" s="107">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17.25" thickBot="1">
+      <c r="C20" s="114">
+        <v>165</v>
+      </c>
+      <c r="D20" s="109">
+        <v>55</v>
+      </c>
+      <c r="E20" s="110">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="C21" s="36">
+        <f>AVERAGE($C$16:$C$20)</f>
+        <v>163</v>
+      </c>
+      <c r="D21" s="36">
+        <f>AVERAGE($D$16:$D$20)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="E22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>526</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="G24">
+        <f>SUM(H16:H20)</f>
+        <v>420</v>
+      </c>
+      <c r="H24" s="87">
+        <f>G24/G25</f>
+        <v>0.97674418604651159</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="C25" s="97" t="s">
+        <v>525</v>
+      </c>
+      <c r="D25" s="97"/>
+      <c r="G25">
+        <f>SUM(F16:F20)</f>
+        <v>430</v>
+      </c>
+      <c r="H25" s="87"/>
+      <c r="N25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="C27" t="s">
+        <v>541</v>
+      </c>
+      <c r="G27">
+        <f>D21-C21*H24</f>
+        <v>-102.20930232558138</v>
+      </c>
+      <c r="I27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="H28" t="s">
+        <v>545</v>
+      </c>
+      <c r="I28">
+        <f>H24*163+G27</f>
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="5" customFormat="1">
+      <c r="B31" s="38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="102" t="s">
+        <v>513</v>
+      </c>
+      <c r="C33" s="101">
+        <v>170</v>
+      </c>
+      <c r="D33" s="101">
+        <v>155</v>
+      </c>
+      <c r="E33" s="101">
+        <v>150</v>
+      </c>
+      <c r="F33" s="101">
+        <v>175</v>
+      </c>
+      <c r="G33" s="101">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="102" t="s">
+        <v>514</v>
+      </c>
+      <c r="C34" s="101">
+        <v>65</v>
+      </c>
+      <c r="D34" s="101">
+        <v>50</v>
+      </c>
+      <c r="E34" s="101">
+        <v>45</v>
+      </c>
+      <c r="F34" s="101">
+        <v>70</v>
+      </c>
+      <c r="G34" s="101">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" t="s">
+        <v>548</v>
+      </c>
+      <c r="M35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="K36" s="83" t="s">
+        <v>550</v>
+      </c>
+      <c r="L36" s="83" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <f>K37^2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="K38">
+        <f>K37+(-1)</f>
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <f>K38^2</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="K39">
+        <f>K38+(-1)</f>
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ref="L39:L57" si="4">K39^2</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="K40">
+        <f t="shared" ref="K40:K57" si="5">K39+(-1)</f>
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13">
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13">
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13">
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13">
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13">
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13">
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13">
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13">
+      <c r="K56">
+        <f>K55+(-1)</f>
+        <v>-9</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13">
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13">
+      <c r="I58" t="s">
+        <v>554</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13">
+      <c r="F59" t="s">
+        <v>553</v>
+      </c>
+      <c r="G59" t="s">
+        <v>556</v>
+      </c>
+      <c r="I59" t="s">
+        <v>555</v>
+      </c>
+      <c r="J59" t="s">
+        <v>557</v>
+      </c>
+      <c r="K59" t="s">
+        <v>558</v>
+      </c>
+      <c r="L59" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13">
+      <c r="D60" s="83" t="s">
+        <v>550</v>
+      </c>
+      <c r="E60" s="83" t="s">
+        <v>551</v>
+      </c>
+      <c r="J60" t="s">
+        <v>560</v>
+      </c>
+      <c r="K60" t="s">
+        <v>557</v>
+      </c>
+      <c r="L60" t="s">
+        <v>558</v>
+      </c>
+      <c r="M60" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13">
+      <c r="D61">
+        <v>-10</v>
+      </c>
+      <c r="E61">
+        <f>D61^2</f>
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>-10</v>
+      </c>
+      <c r="K61">
+        <f>J61^2</f>
+        <v>100</v>
+      </c>
+      <c r="L61">
+        <f>2*J61^2</f>
+        <v>200</v>
+      </c>
+      <c r="M61">
+        <f>3*J61^2</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13">
+      <c r="D62">
+        <f>D61+1</f>
+        <v>-9</v>
+      </c>
+      <c r="E62">
+        <f>D62^2</f>
+        <v>81</v>
+      </c>
+      <c r="J62">
+        <f>J61+1</f>
+        <v>-9</v>
+      </c>
+      <c r="K62">
+        <f>J62^2</f>
+        <v>81</v>
+      </c>
+      <c r="L62">
+        <f>2*J62^2</f>
+        <v>162</v>
+      </c>
+      <c r="M62">
+        <f>3*J62^2</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13">
+      <c r="D63">
+        <f>D62+1</f>
+        <v>-8</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:E81" si="6">D63^2</f>
+        <v>64</v>
+      </c>
+      <c r="J63">
+        <f>J62+1</f>
+        <v>-8</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="K63:K81" si="7">J63^2</f>
+        <v>64</v>
+      </c>
+      <c r="L63">
+        <f>2*J63^2</f>
+        <v>128</v>
+      </c>
+      <c r="M63">
+        <f>3*J63^2</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13">
+      <c r="D64">
+        <f t="shared" ref="D64:D71" si="8">D63+1</f>
+        <v>-7</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ref="J64:J71" si="9">J63+1</f>
+        <v>-7</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="L64">
+        <f>2*J64^2</f>
+        <v>98</v>
+      </c>
+      <c r="M64">
+        <f>3*J64^2</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13">
+      <c r="D65">
+        <f t="shared" si="8"/>
+        <v>-6</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="9"/>
+        <v>-6</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="L65">
+        <f>2*J65^2</f>
+        <v>72</v>
+      </c>
+      <c r="M65">
+        <f>3*J65^2</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13">
+      <c r="D66">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="L66">
+        <f>2*J66^2</f>
+        <v>50</v>
+      </c>
+      <c r="M66">
+        <f>3*J66^2</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13">
+      <c r="D67">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="L67">
+        <f>2*J67^2</f>
+        <v>32</v>
+      </c>
+      <c r="M67">
+        <f>3*J67^2</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13">
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="L68">
+        <f>2*J68^2</f>
+        <v>18</v>
+      </c>
+      <c r="M68">
+        <f>3*J68^2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13">
+      <c r="D69">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <f>2*J69^2</f>
+        <v>8</v>
+      </c>
+      <c r="M69">
+        <f>3*J69^2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13">
+      <c r="D70">
+        <f>D69+1</f>
+        <v>-1</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f>J69+1</f>
+        <v>-1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f>2*J70^2</f>
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <f>3*J70^2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13">
+      <c r="D71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f>2*J71^2</f>
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <f>3*J71^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <f>2*J72^2</f>
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <f>3*J72^2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13">
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <f>2*J73^2</f>
+        <v>8</v>
+      </c>
+      <c r="M73">
+        <f>3*J73^2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13">
+      <c r="D74">
+        <f t="shared" ref="D74:D81" si="10">D73+1</f>
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ref="J74:J81" si="11">J73+1</f>
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <f>2*J74^2</f>
+        <v>18</v>
+      </c>
+      <c r="M74">
+        <f>3*J74^2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13">
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="L75">
+        <f>2*J75^2</f>
+        <v>32</v>
+      </c>
+      <c r="M75">
+        <f>3*J75^2</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13">
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="L76">
+        <f>2*J76^2</f>
+        <v>50</v>
+      </c>
+      <c r="M76">
+        <f>3*J76^2</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13">
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="L77">
+        <f>2*J77^2</f>
+        <v>72</v>
+      </c>
+      <c r="M77">
+        <f>3*J77^2</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13">
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="J78">
+        <v>7</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="L78">
+        <f>2*J78^2</f>
+        <v>98</v>
+      </c>
+      <c r="M78">
+        <f>3*J78^2</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13">
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="J79">
+        <v>8</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="L79">
+        <f>2*J79^2</f>
+        <v>128</v>
+      </c>
+      <c r="M79">
+        <f>3*J79^2</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13">
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="J80">
+        <v>9</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="L80">
+        <f>2*J80^2</f>
+        <v>162</v>
+      </c>
+      <c r="M80">
+        <f>3*J80^2</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="4:13">
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="L81">
+        <f>2*J81^2</f>
+        <v>200</v>
+      </c>
+      <c r="M81">
+        <f>3*J81^2</f>
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H24:H25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
@@ -42845,7 +48713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D29"/>
   <sheetViews>
@@ -42997,7 +48865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C46"/>
   <sheetViews>
@@ -43227,7 +49095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I9"/>
   <sheetViews>
@@ -43277,74 +49145,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ppt2/통합수업자료_shjung.xlsx
+++ b/ppt2/통합수업자료_shjung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="14445" windowHeight="16080" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="비트_240715" sheetId="1" r:id="rId1"/>
@@ -17,21 +17,21 @@
     <sheet name="데이터타입(자료형)" sheetId="15" r:id="rId3"/>
     <sheet name="그래프양식1" sheetId="16" r:id="rId4"/>
     <sheet name="머신러닝기초_Transpose_전치" sheetId="17" r:id="rId5"/>
-    <sheet name="컴퓨터상식" sheetId="2" r:id="rId6"/>
-    <sheet name="자료형" sheetId="3" r:id="rId7"/>
-    <sheet name="연산자" sheetId="9" r:id="rId8"/>
-    <sheet name="클래스" sheetId="4" r:id="rId9"/>
-    <sheet name="문자열" sheetId="5" r:id="rId10"/>
-    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId11"/>
-    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId12"/>
-    <sheet name="테이블연습" sheetId="8" r:id="rId13"/>
-    <sheet name="반복문" sheetId="10" r:id="rId14"/>
-    <sheet name="함수" sheetId="11" r:id="rId15"/>
-    <sheet name="기초수학" sheetId="12" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId17"/>
+    <sheet name="깃허브_GIT" sheetId="18" r:id="rId6"/>
+    <sheet name="컴퓨터상식" sheetId="2" r:id="rId7"/>
+    <sheet name="자료형" sheetId="3" r:id="rId8"/>
+    <sheet name="연산자" sheetId="9" r:id="rId9"/>
+    <sheet name="클래스" sheetId="4" r:id="rId10"/>
+    <sheet name="문자열" sheetId="5" r:id="rId11"/>
+    <sheet name="자료구조_알고리즘" sheetId="6" r:id="rId12"/>
+    <sheet name="쿠팡홈페이지_이미지" sheetId="7" r:id="rId13"/>
+    <sheet name="테이블연습" sheetId="8" r:id="rId14"/>
+    <sheet name="반복문" sheetId="10" r:id="rId15"/>
+    <sheet name="함수" sheetId="11" r:id="rId16"/>
+    <sheet name="기초수학" sheetId="12" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="562">
   <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2515,6 +2515,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit : 반영하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3367,48 +3371,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3453,6 +3415,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3780,7 +3784,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8190,6 +8193,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>648745</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="190500"/>
+          <a:ext cx="7487695" cy="4039164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8410,7 +8456,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8993,16 +9039,16 @@
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
       <c r="N7" t="s">
         <v>32</v>
       </c>
@@ -9519,21 +9565,21 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="102">
         <v>3</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87">
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102">
         <v>5</v>
       </c>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87">
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102">
         <v>1</v>
       </c>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" t="s">
@@ -9579,18 +9625,18 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87">
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102">
         <v>9</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" t="s">
@@ -9633,21 +9679,21 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C34" s="102">
         <v>3</v>
       </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87">
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102">
         <v>7</v>
       </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87">
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102">
         <v>2</v>
       </c>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
     </row>
     <row r="35" spans="2:14">
       <c r="D35" s="6">
@@ -9682,18 +9728,18 @@
       <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87" t="s">
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9716,6 +9762,58 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9784,7 +9882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L149"/>
   <sheetViews>
@@ -9865,10 +9963,10 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="K9" s="99" t="s">
+      <c r="K9" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="99"/>
+      <c r="L9" s="114"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" t="s">
@@ -10454,7 +10552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10470,7 +10568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
@@ -10550,7 +10648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B45"/>
   <sheetViews>
@@ -10742,7 +10840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
@@ -10791,7 +10889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z78"/>
   <sheetViews>
@@ -11246,7 +11344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13080,10 +13178,10 @@
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
-      <c r="H46" s="91" t="s">
+      <c r="H46" s="106" t="s">
         <v>403</v>
       </c>
-      <c r="I46" s="91"/>
+      <c r="I46" s="106"/>
       <c r="J46" s="44"/>
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
@@ -13919,25 +14017,25 @@
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
-      <c r="E68" s="92" t="s">
+      <c r="E68" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="F68" s="92"/>
+      <c r="F68" s="107"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
-      <c r="I68" s="93" t="s">
+      <c r="I68" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="J68" s="93"/>
+      <c r="J68" s="108"/>
       <c r="K68" s="64" t="b">
         <v>0</v>
       </c>
       <c r="L68" s="40"/>
-      <c r="M68" s="92" t="s">
+      <c r="M68" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="N68" s="92"/>
-      <c r="O68" s="92"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="107"/>
       <c r="P68" s="40"/>
       <c r="Q68" s="40"/>
       <c r="R68" s="40"/>
@@ -14008,7 +14106,7 @@
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
-      <c r="D70" s="90" t="s">
+      <c r="D70" s="105" t="s">
         <v>447</v>
       </c>
       <c r="E70" s="67"/>
@@ -14017,17 +14115,17 @@
       </c>
       <c r="G70" s="44"/>
       <c r="H70" s="44"/>
-      <c r="I70" s="94" t="s">
+      <c r="I70" s="109" t="s">
         <v>448</v>
       </c>
-      <c r="J70" s="95" t="s">
+      <c r="J70" s="110" t="s">
         <v>449</v>
       </c>
       <c r="K70" s="69" t="s">
         <v>450</v>
       </c>
       <c r="L70" s="44"/>
-      <c r="M70" s="90" t="s">
+      <c r="M70" s="105" t="s">
         <v>451</v>
       </c>
       <c r="N70" s="44"/>
@@ -14055,20 +14153,20 @@
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
-      <c r="D71" s="90"/>
+      <c r="D71" s="105"/>
       <c r="E71" s="67"/>
       <c r="F71" s="68" t="s">
         <v>349</v>
       </c>
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="95"/>
+      <c r="I71" s="109"/>
+      <c r="J71" s="110"/>
       <c r="K71" s="69" t="s">
         <v>452</v>
       </c>
       <c r="L71" s="44"/>
-      <c r="M71" s="90"/>
+      <c r="M71" s="105"/>
       <c r="N71" s="44"/>
       <c r="O71" s="44"/>
       <c r="P71" s="44"/>
@@ -14094,7 +14192,7 @@
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
-      <c r="D72" s="90"/>
+      <c r="D72" s="105"/>
       <c r="E72" s="70" t="s">
         <v>453</v>
       </c>
@@ -14103,11 +14201,11 @@
       </c>
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="95"/>
+      <c r="I72" s="109"/>
+      <c r="J72" s="110"/>
       <c r="K72" s="44"/>
       <c r="L72" s="44"/>
-      <c r="M72" s="90"/>
+      <c r="M72" s="105"/>
       <c r="N72" s="44"/>
       <c r="O72" s="69" t="s">
         <v>454</v>
@@ -14137,20 +14235,20 @@
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
-      <c r="D73" s="90"/>
+      <c r="D73" s="105"/>
       <c r="E73" s="67"/>
       <c r="F73" s="68" t="s">
         <v>357</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="95"/>
+      <c r="I73" s="109"/>
+      <c r="J73" s="110"/>
       <c r="K73" s="69" t="s">
         <v>455</v>
       </c>
       <c r="L73" s="44"/>
-      <c r="M73" s="90"/>
+      <c r="M73" s="105"/>
       <c r="N73" s="44"/>
       <c r="O73" s="69" t="s">
         <v>456</v>
@@ -14182,16 +14280,16 @@
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
-      <c r="D74" s="90"/>
+      <c r="D74" s="105"/>
       <c r="E74" s="67"/>
       <c r="F74" s="67"/>
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="95"/>
+      <c r="I74" s="109"/>
+      <c r="J74" s="110"/>
       <c r="K74" s="44"/>
       <c r="L74" s="44"/>
-      <c r="M74" s="90"/>
+      <c r="M74" s="105"/>
       <c r="N74" s="44"/>
       <c r="O74" s="69" t="s">
         <v>355</v>
@@ -14221,8 +14319,8 @@
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="96" t="s">
+      <c r="D75" s="105"/>
+      <c r="E75" s="111" t="s">
         <v>458</v>
       </c>
       <c r="F75" s="72" t="s">
@@ -14230,11 +14328,11 @@
       </c>
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="95"/>
+      <c r="I75" s="109"/>
+      <c r="J75" s="110"/>
       <c r="K75" s="44"/>
       <c r="L75" s="44"/>
-      <c r="M75" s="90"/>
+      <c r="M75" s="105"/>
       <c r="N75" s="44"/>
       <c r="O75" s="69" t="s">
         <v>362</v>
@@ -14264,18 +14362,18 @@
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="96"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="111"/>
       <c r="F76" s="68" t="s">
         <v>366</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="95"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="110"/>
       <c r="K76" s="44"/>
       <c r="L76" s="44"/>
-      <c r="M76" s="90"/>
+      <c r="M76" s="105"/>
       <c r="N76" s="44"/>
       <c r="O76" s="69" t="s">
         <v>366</v>
@@ -14305,16 +14403,16 @@
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
-      <c r="D77" s="90"/>
+      <c r="D77" s="105"/>
       <c r="E77" s="67"/>
       <c r="F77" s="67"/>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
       <c r="I77" s="73"/>
-      <c r="J77" s="95"/>
+      <c r="J77" s="110"/>
       <c r="K77" s="44"/>
       <c r="L77" s="44"/>
-      <c r="M77" s="90"/>
+      <c r="M77" s="105"/>
       <c r="N77" s="44"/>
       <c r="O77" s="44"/>
       <c r="P77" s="44"/>
@@ -14340,7 +14438,7 @@
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
-      <c r="D78" s="90"/>
+      <c r="D78" s="105"/>
       <c r="E78" s="68" t="s">
         <v>460</v>
       </c>
@@ -14352,7 +14450,7 @@
       <c r="I78" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="J78" s="95"/>
+      <c r="J78" s="110"/>
       <c r="K78" s="69" t="s">
         <v>463</v>
       </c>
@@ -14393,13 +14491,13 @@
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
-      <c r="D79" s="90"/>
+      <c r="D79" s="105"/>
       <c r="E79" s="67"/>
       <c r="F79" s="67"/>
       <c r="G79" s="44"/>
       <c r="H79" s="44"/>
       <c r="I79" s="73"/>
-      <c r="J79" s="95"/>
+      <c r="J79" s="110"/>
       <c r="K79" s="44"/>
       <c r="L79" s="44"/>
       <c r="M79" s="69" t="s">
@@ -14438,22 +14536,22 @@
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
-      <c r="D80" s="90"/>
+      <c r="D80" s="105"/>
       <c r="E80" s="67"/>
       <c r="F80" s="67"/>
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
       <c r="I80" s="73"/>
-      <c r="J80" s="95"/>
+      <c r="J80" s="110"/>
       <c r="K80" s="44"/>
       <c r="L80" s="44"/>
       <c r="M80" s="69" t="s">
         <v>471</v>
       </c>
-      <c r="N80" s="89" t="s">
+      <c r="N80" s="104" t="s">
         <v>472</v>
       </c>
-      <c r="O80" s="89"/>
+      <c r="O80" s="104"/>
       <c r="P80" s="44"/>
       <c r="Q80" s="44"/>
       <c r="R80" s="44"/>
@@ -14477,17 +14575,17 @@
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="88" t="s">
+      <c r="D81" s="105"/>
+      <c r="E81" s="103" t="s">
         <v>473</v>
       </c>
-      <c r="F81" s="88"/>
+      <c r="F81" s="103"/>
       <c r="G81" s="44"/>
       <c r="H81" s="44"/>
       <c r="I81" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="J81" s="95"/>
+      <c r="J81" s="110"/>
       <c r="K81" s="44"/>
       <c r="L81" s="44"/>
       <c r="M81" s="71" t="s">
@@ -14531,10 +14629,10 @@
       <c r="J82" s="44"/>
       <c r="K82" s="44"/>
       <c r="L82" s="44"/>
-      <c r="M82" s="89" t="s">
+      <c r="M82" s="104" t="s">
         <v>476</v>
       </c>
-      <c r="N82" s="89"/>
+      <c r="N82" s="104"/>
       <c r="O82" s="44"/>
       <c r="P82" s="44"/>
       <c r="Q82" s="44"/>
@@ -14559,7 +14657,7 @@
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
-      <c r="D83" s="90" t="s">
+      <c r="D83" s="105" t="s">
         <v>477</v>
       </c>
       <c r="E83" s="69" t="s">
@@ -14598,7 +14696,7 @@
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
-      <c r="D84" s="90"/>
+      <c r="D84" s="105"/>
       <c r="E84" s="71" t="s">
         <v>479</v>
       </c>
@@ -14635,7 +14733,7 @@
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
-      <c r="D85" s="90"/>
+      <c r="D85" s="105"/>
       <c r="E85" s="69" t="s">
         <v>480</v>
       </c>
@@ -14682,7 +14780,7 @@
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
-      <c r="D86" s="90"/>
+      <c r="D86" s="105"/>
       <c r="E86" s="71" t="s">
         <v>484</v>
       </c>
@@ -47407,7 +47505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
@@ -47423,62 +47521,62 @@
   <sheetData>
     <row r="3" spans="1:19" ht="17.25" thickBot="1"/>
     <row r="4" spans="1:19">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="90" t="s">
         <v>518</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="90" t="s">
         <v>519</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="90" t="s">
         <v>520</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="90" t="s">
         <v>521</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="91" t="s">
         <v>522</v>
       </c>
       <c r="H4" s="83"/>
       <c r="I4" s="82"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="92" t="s">
         <v>513</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="87">
         <v>170</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="87">
         <v>155</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="87">
         <v>150</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="87">
         <v>175</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="93">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="94" t="s">
         <v>514</v>
       </c>
-      <c r="B6" s="109">
+      <c r="B6" s="95">
         <v>65</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="95">
         <v>50</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="95">
         <v>45</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="95">
         <v>70</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="96">
         <v>55</v>
       </c>
     </row>
@@ -47541,22 +47639,22 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="97" t="s">
         <v>513</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="91" t="s">
         <v>528</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="86" t="s">
         <v>540</v>
       </c>
-      <c r="G15" s="100" t="s">
+      <c r="G15" s="86" t="s">
         <v>529</v>
       </c>
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="86" t="s">
         <v>538</v>
       </c>
       <c r="I15" s="83" t="s">
@@ -47567,13 +47665,13 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="113">
+      <c r="C16" s="99">
         <v>170</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="87">
         <v>65</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="93">
         <f>C16-$C$21</f>
         <v>7</v>
       </c>
@@ -47591,13 +47689,13 @@
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="C17" s="113">
+      <c r="C17" s="99">
         <v>155</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="87">
         <v>50</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="93">
         <f t="shared" ref="E17:E20" si="0">C17-$C$21</f>
         <v>-8</v>
       </c>
@@ -47615,13 +47713,13 @@
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="C18" s="113">
+      <c r="C18" s="99">
         <v>150</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="87">
         <v>45</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="93">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
@@ -47639,13 +47737,13 @@
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="C19" s="113">
+      <c r="C19" s="99">
         <v>175</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="87">
         <v>70</v>
       </c>
-      <c r="E19" s="107">
+      <c r="E19" s="93">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -47663,13 +47761,13 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1">
-      <c r="C20" s="114">
+      <c r="C20" s="100">
         <v>165</v>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="95">
         <v>55</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E20" s="96">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -47708,29 +47806,29 @@
       <c r="B24" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="113" t="s">
         <v>526</v>
       </c>
-      <c r="D24" s="98"/>
+      <c r="D24" s="113"/>
       <c r="G24">
         <f>SUM(H16:H20)</f>
         <v>420</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="102">
         <f>G24/G25</f>
         <v>0.97674418604651159</v>
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="112" t="s">
         <v>525</v>
       </c>
-      <c r="D25" s="97"/>
+      <c r="D25" s="112"/>
       <c r="G25">
         <f>SUM(F16:F20)</f>
         <v>430</v>
       </c>
-      <c r="H25" s="87"/>
+      <c r="H25" s="102"/>
       <c r="N25" t="s">
         <v>524</v>
       </c>
@@ -47768,42 +47866,42 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="88" t="s">
         <v>513</v>
       </c>
-      <c r="C33" s="101">
+      <c r="C33" s="87">
         <v>170</v>
       </c>
-      <c r="D33" s="101">
+      <c r="D33" s="87">
         <v>155</v>
       </c>
-      <c r="E33" s="101">
+      <c r="E33" s="87">
         <v>150</v>
       </c>
-      <c r="F33" s="101">
+      <c r="F33" s="87">
         <v>175</v>
       </c>
-      <c r="G33" s="101">
+      <c r="G33" s="87">
         <v>165</v>
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="88" t="s">
         <v>514</v>
       </c>
-      <c r="C34" s="101">
+      <c r="C34" s="87">
         <v>65</v>
       </c>
-      <c r="D34" s="101">
+      <c r="D34" s="87">
         <v>50</v>
       </c>
-      <c r="E34" s="101">
+      <c r="E34" s="87">
         <v>45</v>
       </c>
-      <c r="F34" s="101">
+      <c r="F34" s="87">
         <v>70</v>
       </c>
-      <c r="G34" s="101">
+      <c r="G34" s="87">
         <v>55</v>
       </c>
     </row>
@@ -48102,11 +48200,11 @@
         <v>100</v>
       </c>
       <c r="L61">
-        <f>2*J61^2</f>
+        <f t="shared" ref="L61:L81" si="6">2*J61^2</f>
         <v>200</v>
       </c>
       <c r="M61">
-        <f>3*J61^2</f>
+        <f t="shared" ref="M61:M81" si="7">3*J61^2</f>
         <v>300</v>
       </c>
     </row>
@@ -48128,11 +48226,11 @@
         <v>81</v>
       </c>
       <c r="L62">
-        <f>2*J62^2</f>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="M62">
-        <f>3*J62^2</f>
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
     </row>
@@ -48142,7 +48240,7 @@
         <v>-8</v>
       </c>
       <c r="E63">
-        <f t="shared" ref="E63:E81" si="6">D63^2</f>
+        <f t="shared" ref="E63:E81" si="8">D63^2</f>
         <v>64</v>
       </c>
       <c r="J63">
@@ -48150,171 +48248,171 @@
         <v>-8</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K81" si="7">J63^2</f>
+        <f t="shared" ref="K63:K81" si="9">J63^2</f>
         <v>64</v>
       </c>
       <c r="L63">
-        <f>2*J63^2</f>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="M63">
-        <f>3*J63^2</f>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
     </row>
     <row r="64" spans="4:13">
       <c r="D64">
-        <f t="shared" ref="D64:D71" si="8">D63+1</f>
+        <f t="shared" ref="D64:D71" si="10">D63+1</f>
         <v>-7</v>
       </c>
       <c r="E64">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ref="J64:J71" si="11">J63+1</f>
+        <v>-7</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="J64">
-        <f t="shared" ref="J64:J71" si="9">J63+1</f>
-        <v>-7</v>
-      </c>
-      <c r="K64">
+        <v>98</v>
+      </c>
+      <c r="M64">
         <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="L64">
-        <f>2*J64^2</f>
-        <v>98</v>
-      </c>
-      <c r="M64">
-        <f>3*J64^2</f>
         <v>147</v>
       </c>
     </row>
     <row r="65" spans="4:13">
       <c r="D65">
+        <f t="shared" si="10"/>
+        <v>-6</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="11"/>
         <v>-6</v>
       </c>
-      <c r="E65">
+      <c r="K65">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="9"/>
-        <v>-6</v>
-      </c>
-      <c r="K65">
+        <v>72</v>
+      </c>
+      <c r="M65">
         <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="L65">
-        <f>2*J65^2</f>
-        <v>72</v>
-      </c>
-      <c r="M65">
-        <f>3*J65^2</f>
         <v>108</v>
       </c>
     </row>
     <row r="66" spans="4:13">
       <c r="D66">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="E66">
+      <c r="K66">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="9"/>
-        <v>-5</v>
-      </c>
-      <c r="K66">
+        <v>50</v>
+      </c>
+      <c r="M66">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="L66">
-        <f>2*J66^2</f>
-        <v>50</v>
-      </c>
-      <c r="M66">
-        <f>3*J66^2</f>
         <v>75</v>
       </c>
     </row>
     <row r="67" spans="4:13">
       <c r="D67">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
-      <c r="E67">
+      <c r="K67">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="9"/>
-        <v>-4</v>
-      </c>
-      <c r="K67">
+        <v>32</v>
+      </c>
+      <c r="M67">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="L67">
-        <f>2*J67^2</f>
-        <v>32</v>
-      </c>
-      <c r="M67">
-        <f>3*J67^2</f>
         <v>48</v>
       </c>
     </row>
     <row r="68" spans="4:13">
       <c r="D68">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
-      <c r="E68">
+      <c r="K68">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="9"/>
-        <v>-3</v>
-      </c>
-      <c r="K68">
+        <v>18</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="L68">
-        <f>2*J68^2</f>
-        <v>18</v>
-      </c>
-      <c r="M68">
-        <f>3*J68^2</f>
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="4:13">
       <c r="D69">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-      <c r="E69">
+      <c r="K69">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="9"/>
-        <v>-2</v>
-      </c>
-      <c r="K69">
+        <v>8</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="L69">
-        <f>2*J69^2</f>
-        <v>8</v>
-      </c>
-      <c r="M69">
-        <f>3*J69^2</f>
         <v>12</v>
       </c>
     </row>
@@ -48324,7 +48422,7 @@
         <v>-1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J70">
@@ -48332,41 +48430,41 @@
         <v>-1</v>
       </c>
       <c r="K70">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <f>2*J70^2</f>
-        <v>2</v>
-      </c>
-      <c r="M70">
-        <f>3*J70^2</f>
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="4:13">
       <c r="D71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K71">
+      <c r="M71">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f>2*J71^2</f>
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <f>3*J71^2</f>
         <v>0</v>
       </c>
     </row>
@@ -48375,22 +48473,22 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <f>2*J72^2</f>
-        <v>2</v>
-      </c>
-      <c r="M72">
-        <f>3*J72^2</f>
         <v>3</v>
       </c>
     </row>
@@ -48399,48 +48497,48 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="J73">
         <v>2</v>
       </c>
       <c r="K73">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="L73">
-        <f>2*J73^2</f>
-        <v>8</v>
-      </c>
-      <c r="M73">
-        <f>3*J73^2</f>
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="4:13">
       <c r="D74">
-        <f t="shared" ref="D74:D81" si="10">D73+1</f>
+        <f t="shared" ref="D74" si="12">D73+1</f>
         <v>3</v>
       </c>
       <c r="E74">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ref="J74" si="13">J73+1</f>
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="J74">
-        <f t="shared" ref="J74:J81" si="11">J73+1</f>
-        <v>3</v>
-      </c>
-      <c r="K74">
+        <v>18</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="L74">
-        <f>2*J74^2</f>
-        <v>18</v>
-      </c>
-      <c r="M74">
-        <f>3*J74^2</f>
         <v>27</v>
       </c>
     </row>
@@ -48449,22 +48547,22 @@
         <v>4</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="J75">
         <v>4</v>
       </c>
       <c r="K75">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="L75">
-        <f>2*J75^2</f>
-        <v>32</v>
-      </c>
-      <c r="M75">
-        <f>3*J75^2</f>
         <v>48</v>
       </c>
     </row>
@@ -48473,22 +48571,22 @@
         <v>5</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="J76">
         <v>5</v>
       </c>
       <c r="K76">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="L76">
-        <f>2*J76^2</f>
-        <v>50</v>
-      </c>
-      <c r="M76">
-        <f>3*J76^2</f>
         <v>75</v>
       </c>
     </row>
@@ -48497,22 +48595,22 @@
         <v>6</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="J77">
         <v>6</v>
       </c>
       <c r="K77">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="L77">
-        <f>2*J77^2</f>
-        <v>72</v>
-      </c>
-      <c r="M77">
-        <f>3*J77^2</f>
         <v>108</v>
       </c>
     </row>
@@ -48521,22 +48619,22 @@
         <v>7</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="J78">
         <v>7</v>
       </c>
       <c r="K78">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="L78">
-        <f>2*J78^2</f>
-        <v>98</v>
-      </c>
-      <c r="M78">
-        <f>3*J78^2</f>
         <v>147</v>
       </c>
     </row>
@@ -48545,22 +48643,22 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="J79">
         <v>8</v>
       </c>
       <c r="K79">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="L79">
-        <f>2*J79^2</f>
-        <v>128</v>
-      </c>
-      <c r="M79">
-        <f>3*J79^2</f>
         <v>192</v>
       </c>
     </row>
@@ -48569,22 +48667,22 @@
         <v>9</v>
       </c>
       <c r="E80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="J80">
         <v>9</v>
       </c>
       <c r="K80">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="7"/>
-        <v>81</v>
-      </c>
-      <c r="L80">
-        <f>2*J80^2</f>
-        <v>162</v>
-      </c>
-      <c r="M80">
-        <f>3*J80^2</f>
         <v>243</v>
       </c>
     </row>
@@ -48593,22 +48691,22 @@
         <v>10</v>
       </c>
       <c r="E81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="J81">
         <v>10</v>
       </c>
       <c r="K81">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="L81">
-        <f>2*J81^2</f>
-        <v>200</v>
-      </c>
-      <c r="M81">
-        <f>3*J81^2</f>
         <v>300</v>
       </c>
     </row>
@@ -48626,6 +48724,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
@@ -48713,7 +48836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D29"/>
   <sheetViews>
@@ -48865,7 +48988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C46"/>
   <sheetViews>
@@ -49093,56 +49216,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9">
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>